--- a/Racing_Consolidated.xlsx
+++ b/Racing_Consolidated.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\Code\racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31408E6D-287B-44D5-9352-A4F62E82B4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F3003-978B-4CEE-9CEE-71658E60641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$9:$G$4233</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="4069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="4153">
   <si>
     <t>df_bf_raw</t>
   </si>
@@ -12246,6 +12247,258 @@
   </si>
   <si>
     <t>abs(Win - Plc)</t>
+  </si>
+  <si>
+    <t>market_id</t>
+  </si>
+  <si>
+    <t>runner_id</t>
+  </si>
+  <si>
+    <t>runner_name</t>
+  </si>
+  <si>
+    <t>event_venue</t>
+  </si>
+  <si>
+    <t>race_number</t>
+  </si>
+  <si>
+    <t>ACTION NOW</t>
+  </si>
+  <si>
+    <t>Albion Park</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>ARTANIS</t>
+  </si>
+  <si>
+    <t>ARTY BARTY</t>
+  </si>
+  <si>
+    <t>BAD AND BOUJEE</t>
+  </si>
+  <si>
+    <t>BARCELONA CYNDIE</t>
+  </si>
+  <si>
+    <t>BAREFOOT FLYNN</t>
+  </si>
+  <si>
+    <t>BAREFOOT RONNIE</t>
+  </si>
+  <si>
+    <t>BIG BOY BENJI</t>
+  </si>
+  <si>
+    <t>BLACK MAGIC MOJO</t>
+  </si>
+  <si>
+    <t>BOLD HORNET</t>
+  </si>
+  <si>
+    <t>CHAMPAGNE JAZZY</t>
+  </si>
+  <si>
+    <t>CHIC</t>
+  </si>
+  <si>
+    <t>DAYS OF THUNDER</t>
+  </si>
+  <si>
+    <t>DAYSEAS SAM</t>
+  </si>
+  <si>
+    <t>DIXIE KATH</t>
+  </si>
+  <si>
+    <t>DR LIBBY</t>
+  </si>
+  <si>
+    <t>DULCERIA</t>
+  </si>
+  <si>
+    <t>DYNAMITE CYNDIE</t>
+  </si>
+  <si>
+    <t>EMERALD EYES</t>
+  </si>
+  <si>
+    <t>EXTRA MALT</t>
+  </si>
+  <si>
+    <t>FARMOR MILLERS</t>
+  </si>
+  <si>
+    <t>FERNANDO TRAVIS</t>
+  </si>
+  <si>
+    <t>FLEUR DE BELLE</t>
+  </si>
+  <si>
+    <t>FLYING JET</t>
+  </si>
+  <si>
+    <t>GLITTERING ACE</t>
+  </si>
+  <si>
+    <t>HELLO BILL</t>
+  </si>
+  <si>
+    <t>HIGH END</t>
+  </si>
+  <si>
+    <t>HOPEFUL BILL</t>
+  </si>
+  <si>
+    <t>HOPEFUL HOPE</t>
+  </si>
+  <si>
+    <t>HOPEFUL LANA</t>
+  </si>
+  <si>
+    <t>HOPES DYNAMIC</t>
+  </si>
+  <si>
+    <t>HURRICANE ASHY</t>
+  </si>
+  <si>
+    <t>HURRICANES FURY</t>
+  </si>
+  <si>
+    <t>ICONIC</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>JIMARY STAR</t>
+  </si>
+  <si>
+    <t>JUST A SORT</t>
+  </si>
+  <si>
+    <t>JUST ACE</t>
+  </si>
+  <si>
+    <t>KEEN</t>
+  </si>
+  <si>
+    <t>KEY WEST</t>
+  </si>
+  <si>
+    <t>KIKIS MOM</t>
+  </si>
+  <si>
+    <t>LALA SISTER GIRL</t>
+  </si>
+  <si>
+    <t>LILY MONELLI</t>
+  </si>
+  <si>
+    <t>LOVE GAME</t>
+  </si>
+  <si>
+    <t>MAGIC MISS</t>
+  </si>
+  <si>
+    <t>ME AND YOU</t>
+  </si>
+  <si>
+    <t>MERE MAGIC</t>
+  </si>
+  <si>
+    <t>MINK LAKE</t>
+  </si>
+  <si>
+    <t>MOMENT OF GLORY</t>
+  </si>
+  <si>
+    <t>MYSTIC CORA</t>
+  </si>
+  <si>
+    <t>NANDO DREAMER</t>
+  </si>
+  <si>
+    <t>NIGHTMARE MOON</t>
+  </si>
+  <si>
+    <t>PERFECT FREEZE</t>
+  </si>
+  <si>
+    <t>PIPER FIRE</t>
+  </si>
+  <si>
+    <t>POKIE PAYOUT</t>
+  </si>
+  <si>
+    <t>POWER MOVES</t>
+  </si>
+  <si>
+    <t>PRE CRUISE</t>
+  </si>
+  <si>
+    <t>PROTAGONIST</t>
+  </si>
+  <si>
+    <t>QUEENSLANDER</t>
+  </si>
+  <si>
+    <t>RED WOMBAT</t>
+  </si>
+  <si>
+    <t>ROXY TEQUILA</t>
+  </si>
+  <si>
+    <t>SAMONA</t>
+  </si>
+  <si>
+    <t>SHAYE</t>
+  </si>
+  <si>
+    <t>SHES IN CLOVER</t>
+  </si>
+  <si>
+    <t>SHES SAVAGE</t>
+  </si>
+  <si>
+    <t>SHES SO GNARLEY</t>
+  </si>
+  <si>
+    <t>SHOWDOWN</t>
+  </si>
+  <si>
+    <t>SMART LILLY</t>
+  </si>
+  <si>
+    <t>SORORITY</t>
+  </si>
+  <si>
+    <t>SPECIAL CYNDIE</t>
+  </si>
+  <si>
+    <t>STEAL AWAY</t>
+  </si>
+  <si>
+    <t>STREET CRY</t>
+  </si>
+  <si>
+    <t>STREET SMART</t>
+  </si>
+  <si>
+    <t>SUNBURST</t>
+  </si>
+  <si>
+    <t>SUPREME MACHINE</t>
+  </si>
+  <si>
+    <t>TUNGSTEN MISS</t>
+  </si>
+  <si>
+    <t>DataFrame = df.runners</t>
   </si>
 </sst>
 </file>
@@ -12280,15 +12533,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -12296,12 +12561,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -12311,6 +12591,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12702,7 +12991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD1FA2-1DE2-421E-BA73-C0D53B28D902}">
   <dimension ref="C5:G4233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -88570,4 +88859,1357 @@
   <autoFilter ref="C9:G4233" xr:uid="{26DD1FA2-1DE2-421E-BA73-C0D53B28D902}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D1049-098D-4FC3-8E3D-CCFF2376FF25}">
+  <dimension ref="C3:H83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4070</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4072</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E7" s="8">
+        <v>36484291</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45542168</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>4076</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E9" s="8">
+        <v>40950583</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>4077</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>27333911</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>37175106</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>40324235</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E13" s="8">
+        <v>41191094</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4081</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H13" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E14" s="8">
+        <v>42315234</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>4082</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H14" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E15" s="8">
+        <v>36272749</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4083</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E16" s="8">
+        <v>39789998</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>4084</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E17" s="8">
+        <v>40101061</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>4085</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H17" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>41385493</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>4086</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>40658345</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>4087</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E20" s="8">
+        <v>39629529</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>45542167</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>4089</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E22" s="8">
+        <v>40015034</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>4090</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45169304</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>4091</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E24" s="9">
+        <v>39734131</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>4092</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E25" s="8">
+        <v>38427785</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>45223360</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E27" s="8">
+        <v>38256957</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H27" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="9">
+        <v>1.199810169</v>
+      </c>
+      <c r="E28" s="9">
+        <v>26187798</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>38276010</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>4097</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H29" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E30" s="8">
+        <v>44123755</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>4098</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E31" s="8">
+        <v>27728122</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>4099</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E32" s="8">
+        <v>39007887</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H32" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E33" s="8">
+        <v>45542166</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E34" s="8">
+        <v>43224697</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>4102</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E35" s="8">
+        <v>38389977</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E36" s="8">
+        <v>36594111</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>4104</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H36" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E37" s="8">
+        <v>38179021</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H37" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E38" s="8">
+        <v>27551120</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E39" s="8">
+        <v>42202097</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>4107</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E40" s="8">
+        <v>45542165</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E41" s="8">
+        <v>42130986</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H41" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E42" s="8">
+        <v>37749103</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>4110</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H42" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E43" s="8">
+        <v>35452315</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>4111</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H43" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E44" s="8">
+        <v>39658488</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>4112</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H44" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E45" s="8">
+        <v>42815455</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H45" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E46" s="8">
+        <v>39318260</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H46" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E47" s="8">
+        <v>27113123</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H47" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E48" s="8">
+        <v>27482209</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>4116</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E49" s="8">
+        <v>38698091</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>4117</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H49" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E50" s="8">
+        <v>39786216</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>4118</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H50" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E51" s="8">
+        <v>26920429</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E52" s="8">
+        <v>39788526</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>4120</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H52" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E53" s="8">
+        <v>41665037</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>4121</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E54" s="8">
+        <v>39529207</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H54" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E55" s="8">
+        <v>38640764</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>4123</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H55" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E56" s="8">
+        <v>45169308</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>4124</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H56" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E57" s="8">
+        <v>39785071</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>4125</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H57" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E58" s="8">
+        <v>37581832</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>4126</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E59" s="8">
+        <v>39990214</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>4127</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H59" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E60" s="8">
+        <v>37296810</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E61" s="8">
+        <v>40397949</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H61" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E62" s="8">
+        <v>39161792</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>4130</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H62" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E63" s="8">
+        <v>39318256</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>4131</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H63" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E64" s="8">
+        <v>27788037</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>4132</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H64" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E65" s="8">
+        <v>45542169</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>4133</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H65" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="8">
+        <v>1.199810209</v>
+      </c>
+      <c r="E66" s="8">
+        <v>44144651</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>4134</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H66" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E67" s="8">
+        <v>39125272</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>4135</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H67" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E68" s="8">
+        <v>38018197</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>4136</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H68" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E69" s="8">
+        <v>38745728</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>4137</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H69" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E70" s="8">
+        <v>37826547</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>4138</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H70" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E71" s="8">
+        <v>41997800</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>4139</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H71" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="8">
+        <v>1.199810179</v>
+      </c>
+      <c r="E72" s="8">
+        <v>42688908</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>4140</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H72" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="8">
+        <v>1.199810204</v>
+      </c>
+      <c r="E73" s="8">
+        <v>39360136</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>4141</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H73" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E74" s="8">
+        <v>38534108</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>4142</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H74" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E75" s="8">
+        <v>36513296</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>4143</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H75" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="8">
+        <v>1.1998101640000001</v>
+      </c>
+      <c r="E76" s="8">
+        <v>45542164</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>4144</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="8">
+        <v>1.1998101889999999</v>
+      </c>
+      <c r="E77" s="8">
+        <v>28334480</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>4145</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H77" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="8">
+        <v>1.199810169</v>
+      </c>
+      <c r="E78" s="8">
+        <v>39370025</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H78" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="8">
+        <v>1.199810174</v>
+      </c>
+      <c r="E79" s="8">
+        <v>39790120</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>4147</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H79" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E80" s="8">
+        <v>39199550</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>4148</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H80" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D81" s="8">
+        <v>1.1998101940000001</v>
+      </c>
+      <c r="E81" s="8">
+        <v>38761901</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H81" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D82" s="8">
+        <v>1.1998101990000001</v>
+      </c>
+      <c r="E82" s="8">
+        <v>42547260</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>4150</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H82" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="8">
+        <v>1.1998101839999999</v>
+      </c>
+      <c r="E83" s="8">
+        <v>42343377</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>4151</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H83" s="8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Racing_Consolidated.xlsx
+++ b/Racing_Consolidated.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\Code\racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F3003-978B-4CEE-9CEE-71658E60641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A8B7E-BFA0-48AC-BC09-D12EF2E0C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$9:$G$4233</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="4153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="4185">
   <si>
     <t>df_bf_raw</t>
   </si>
@@ -12499,6 +12500,102 @@
   </si>
   <si>
     <t>DataFrame = df.runners</t>
+  </si>
+  <si>
+    <t>Track_LIVE</t>
+  </si>
+  <si>
+    <t>MissingOdds</t>
+  </si>
+  <si>
+    <t>Odds</t>
+  </si>
+  <si>
+    <t>Angle Park</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Christchurch (NZ)</t>
+  </si>
+  <si>
+    <t>Dapto</t>
+  </si>
+  <si>
+    <t>Gawler</t>
+  </si>
+  <si>
+    <t>Gunnedah</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Horsham</t>
+  </si>
+  <si>
+    <t>Mandurah</t>
+  </si>
+  <si>
+    <t>Mount Gambier</t>
+  </si>
+  <si>
+    <t>Sandown Park</t>
+  </si>
+  <si>
+    <t>Shepparton</t>
+  </si>
+  <si>
+    <t>Waikato (NZ)</t>
+  </si>
+  <si>
+    <t>Warragul</t>
+  </si>
+  <si>
+    <t>Missing Analysis</t>
+  </si>
+  <si>
+    <t>Date : 02 June 07 07 AM</t>
+  </si>
+  <si>
+    <t>Ballarat</t>
+  </si>
+  <si>
+    <t>Bendigo</t>
+  </si>
+  <si>
+    <t>Cannington</t>
+  </si>
+  <si>
+    <t>Capalaba</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Meadows (MEP)</t>
+  </si>
+  <si>
+    <t>Palmerston Nth (NZ)</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Rockhampton</t>
+  </si>
+  <si>
+    <t>Taree</t>
+  </si>
+  <si>
+    <t>Traralgon</t>
+  </si>
+  <si>
+    <t>Wentworth Park</t>
+  </si>
+  <si>
+    <t>Date : 01 June 07 37 AM</t>
   </si>
 </sst>
 </file>
@@ -12509,7 +12606,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12528,6 +12625,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12581,7 +12685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -12600,6 +12704,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -88865,7 +88970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D1049-098D-4FC3-8E3D-CCFF2376FF25}">
   <dimension ref="C3:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -90212,4 +90317,442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB3EAD5-1C46-482A-A27E-51FD9A0BAF4E}">
+  <dimension ref="C3:L21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>4171</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>4153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4153</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4154</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E7" s="10">
+        <v>94</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>4075</v>
+      </c>
+      <c r="K7" s="10">
+        <v>109</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4156</v>
+      </c>
+      <c r="E8" s="10">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4172</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4157</v>
+      </c>
+      <c r="E9" s="10">
+        <v>112</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4173</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E10" s="10">
+        <v>120</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>4174</v>
+      </c>
+      <c r="K10" s="10">
+        <v>104</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>4159</v>
+      </c>
+      <c r="E11" s="10">
+        <v>78</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>4175</v>
+      </c>
+      <c r="K11" s="10">
+        <v>81</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>4160</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>4176</v>
+      </c>
+      <c r="K12" s="10">
+        <v>60</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4161</v>
+      </c>
+      <c r="E13" s="10">
+        <v>116</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>4160</v>
+      </c>
+      <c r="K13" s="10">
+        <v>101</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>4162</v>
+      </c>
+      <c r="E14" s="10">
+        <v>97</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4177</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>4178</v>
+      </c>
+      <c r="K15" s="10">
+        <v>70</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>4164</v>
+      </c>
+      <c r="E16" s="10">
+        <v>114</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>4179</v>
+      </c>
+      <c r="K16" s="10">
+        <v>109</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>4165</v>
+      </c>
+      <c r="E17" s="10">
+        <v>111</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>4180</v>
+      </c>
+      <c r="K17" s="10">
+        <v>78</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>4181</v>
+      </c>
+      <c r="K18" s="10">
+        <v>105</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4167</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4182</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E20" s="10">
+        <v>91</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>4183</v>
+      </c>
+      <c r="K20" s="10">
+        <v>68</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4169</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Racing_Consolidated.xlsx
+++ b/Racing_Consolidated.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\Code\racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A8B7E-BFA0-48AC-BC09-D12EF2E0C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D8B61-0C57-4061-A946-E1B537D202C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Live Testing" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$9:$G$4233</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="4185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="4211">
   <si>
     <t>df_bf_raw</t>
   </si>
@@ -12596,6 +12597,84 @@
   </si>
   <si>
     <t>Date : 01 June 07 37 AM</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>races</t>
+  </si>
+  <si>
+    <t>bets</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>profitability</t>
+  </si>
+  <si>
+    <t>2_31</t>
+  </si>
+  <si>
+    <t>2_32</t>
+  </si>
+  <si>
+    <t>2_33</t>
+  </si>
+  <si>
+    <t>2_34</t>
+  </si>
+  <si>
+    <t>2_35</t>
+  </si>
+  <si>
+    <t>2_36</t>
+  </si>
+  <si>
+    <t>races_today_live_2022_06_02_07_07.csv</t>
+  </si>
+  <si>
+    <t>dogs_today_live_2022_06_02_07_07.csv</t>
+  </si>
+  <si>
+    <t>RaceId</t>
+  </si>
+  <si>
+    <t>s2_31</t>
+  </si>
+  <si>
+    <t>p2_31</t>
+  </si>
+  <si>
+    <t>s2_32</t>
+  </si>
+  <si>
+    <t>p2_32</t>
+  </si>
+  <si>
+    <t>s2_33</t>
+  </si>
+  <si>
+    <t>p2_33</t>
+  </si>
+  <si>
+    <t>s2_34</t>
+  </si>
+  <si>
+    <t>p2_34</t>
+  </si>
+  <si>
+    <t>s2_35</t>
+  </si>
+  <si>
+    <t>p2_35</t>
+  </si>
+  <si>
+    <t>s2_36</t>
+  </si>
+  <si>
+    <t>p2_36</t>
   </si>
 </sst>
 </file>
@@ -12637,7 +12716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12653,6 +12732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12685,7 +12770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -12705,12 +12790,100 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -90323,7 +90496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB3EAD5-1C46-482A-A27E-51FD9A0BAF4E}">
   <dimension ref="C3:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -90755,4 +90928,466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A0745-B222-4DC1-A88D-FBF082E1F8D0}">
+  <dimension ref="D6:R22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>4185</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4186</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4187</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4188</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>4190</v>
+      </c>
+      <c r="F10" s="8">
+        <v>47</v>
+      </c>
+      <c r="G10" s="8">
+        <v>48</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="I10" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F11" s="8">
+        <v>47</v>
+      </c>
+      <c r="G11" s="8">
+        <v>48</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>4192</v>
+      </c>
+      <c r="F12" s="8">
+        <v>47</v>
+      </c>
+      <c r="G12" s="8">
+        <v>54</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F13" s="8">
+        <v>47</v>
+      </c>
+      <c r="G13" s="8">
+        <v>56</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-22</v>
+      </c>
+      <c r="I13" s="13">
+        <v>-0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>4194</v>
+      </c>
+      <c r="F14" s="8">
+        <v>47</v>
+      </c>
+      <c r="G14" s="8">
+        <v>52</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-28</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F15" s="8">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8">
+        <v>51</v>
+      </c>
+      <c r="H15" s="8">
+        <v>57</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>4153</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4198</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>4199</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4200</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4201</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4202</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>4203</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>4204</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>4205</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>4206</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>4207</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>4208</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>4209</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="11" t="s">
+        <v>4163</v>
+      </c>
+      <c r="F19" s="11">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8">
+        <v>-0.89999999999999902</v>
+      </c>
+      <c r="I19" s="11">
+        <v>11</v>
+      </c>
+      <c r="J19" s="8">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <v>11</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-1.8</v>
+      </c>
+      <c r="M19" s="11">
+        <v>12</v>
+      </c>
+      <c r="N19" s="8">
+        <v>-12</v>
+      </c>
+      <c r="O19" s="11">
+        <v>12</v>
+      </c>
+      <c r="P19" s="8">
+        <v>-4</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>11</v>
+      </c>
+      <c r="R19" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E20" s="11" t="s">
+        <v>4166</v>
+      </c>
+      <c r="F20" s="11">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2.19999999999999</v>
+      </c>
+      <c r="I20" s="11">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8">
+        <v>-4</v>
+      </c>
+      <c r="K20" s="11">
+        <v>14</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="M20" s="11">
+        <v>13</v>
+      </c>
+      <c r="N20" s="8">
+        <v>-5</v>
+      </c>
+      <c r="O20" s="11">
+        <v>12</v>
+      </c>
+      <c r="P20" s="8">
+        <v>-12</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>12</v>
+      </c>
+      <c r="R20" s="8">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>4167</v>
+      </c>
+      <c r="F21" s="11">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11">
+        <v>13</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="I21" s="11">
+        <v>12</v>
+      </c>
+      <c r="J21" s="8">
+        <v>-12</v>
+      </c>
+      <c r="K21" s="11">
+        <v>14</v>
+      </c>
+      <c r="L21" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>9</v>
+      </c>
+      <c r="O21" s="11">
+        <v>13</v>
+      </c>
+      <c r="P21" s="8">
+        <v>-13</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>15</v>
+      </c>
+      <c r="R21" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="11" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F22" s="11">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8">
+        <v>-9.9999999999999603E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>12</v>
+      </c>
+      <c r="J22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>15</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-3.5</v>
+      </c>
+      <c r="M22" s="11">
+        <v>14</v>
+      </c>
+      <c r="N22" s="8">
+        <v>-14</v>
+      </c>
+      <c r="O22" s="11">
+        <v>15</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>13</v>
+      </c>
+      <c r="R22" s="8">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E10:I15">
+    <sortCondition ref="E10:E15"/>
+  </sortState>
+  <conditionalFormatting sqref="E10:I15">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I15">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L22">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L22">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N22">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N22">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P22">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Racing_Consolidated.xlsx
+++ b/Racing_Consolidated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\Code\racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D8B61-0C57-4061-A946-E1B537D202C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0E464-3ACE-41BB-B5F5-45FA272AD945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Live Testing" sheetId="5" r:id="rId5"/>
+    <sheet name="Backtesting" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Backtesting!$D$3:$O$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$9:$G$4233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="4211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="4237">
   <si>
     <t>df_bf_raw</t>
   </si>
@@ -12675,6 +12677,84 @@
   </si>
   <si>
     <t>p2_36</t>
+  </si>
+  <si>
+    <t>loopvarname</t>
+  </si>
+  <si>
+    <t>loopvar</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>hits_pct</t>
+  </si>
+  <si>
+    <t>odds_min</t>
+  </si>
+  <si>
+    <t>odds_avg</t>
+  </si>
+  <si>
+    <t>odds_max</t>
+  </si>
+  <si>
+    <t>dogcount</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_11</t>
+  </si>
+  <si>
+    <t>1_12</t>
+  </si>
+  <si>
+    <t>1_13</t>
+  </si>
+  <si>
+    <t>1_21</t>
+  </si>
+  <si>
+    <t>1_22</t>
+  </si>
+  <si>
+    <t>1_23</t>
+  </si>
+  <si>
+    <t>1_24</t>
+  </si>
+  <si>
+    <t>1_25</t>
+  </si>
+  <si>
+    <t>1_26</t>
+  </si>
+  <si>
+    <t>1_27</t>
+  </si>
+  <si>
+    <t>1_28</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_37</t>
+  </si>
+  <si>
+    <t>2_38</t>
+  </si>
+  <si>
+    <t>dogcount_bin</t>
+  </si>
+  <si>
+    <t>8+</t>
+  </si>
+  <si>
+    <t>4-</t>
   </si>
 </sst>
 </file>
@@ -12716,7 +12796,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12741,8 +12821,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -12765,12 +12857,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -12797,6 +13035,148 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12805,7 +13185,7 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -90934,8 +91314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A0745-B222-4DC1-A88D-FBF082E1F8D0}">
   <dimension ref="D6:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -91328,62 +91708,7669 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H22">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H22">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J22">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J22">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L22">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N22">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R22">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B66C8A-B0F3-46F9-8ECF-C7CABA8C5281}">
+  <dimension ref="C3:O196"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:XFD160"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="17" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>4186</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>4187</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>4188</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>4189</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>4213</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>4214</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>4215</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>4216</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E4" s="19">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1237</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1239</v>
+      </c>
+      <c r="I4" s="21">
+        <v>-68.927435237198196</v>
+      </c>
+      <c r="J4" s="21">
+        <v>-5.6</v>
+      </c>
+      <c r="K4" s="20">
+        <v>444</v>
+      </c>
+      <c r="L4" s="19">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4" s="21">
+        <v>2.92</v>
+      </c>
+      <c r="O4" s="30">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E5" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H5" s="15">
+        <v>87</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-4.7747996790380602</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-5.5</v>
+      </c>
+      <c r="K5" s="15">
+        <v>54</v>
+      </c>
+      <c r="L5" s="14">
+        <v>62.1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="O5" s="31">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E6" s="14">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H6" s="15">
+        <v>343</v>
+      </c>
+      <c r="I6" s="16">
+        <v>-15.2054376213271</v>
+      </c>
+      <c r="J6" s="16">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K6" s="15">
+        <v>174</v>
+      </c>
+      <c r="L6" s="14">
+        <v>50.7</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="O6" s="31">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E7" s="14">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H7" s="15">
+        <v>608</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2.8802519982245598</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>281</v>
+      </c>
+      <c r="L7" s="14">
+        <v>46.2</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O7" s="31">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1239</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-68.927435237198196</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="K8" s="15">
+        <v>444</v>
+      </c>
+      <c r="L8" s="14">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8" s="16">
+        <v>2.92</v>
+      </c>
+      <c r="O8" s="31">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E9" s="14">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1241</v>
+      </c>
+      <c r="I9" s="16">
+        <v>36.731909672910298</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15">
+        <v>278</v>
+      </c>
+      <c r="L9" s="14">
+        <v>22.4</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="N9" s="16">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="O9" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1245</v>
+      </c>
+      <c r="I10" s="16">
+        <v>-47.976962971066399</v>
+      </c>
+      <c r="J10" s="16">
+        <v>-3.9</v>
+      </c>
+      <c r="K10" s="15">
+        <v>172</v>
+      </c>
+      <c r="L10" s="14">
+        <v>13.8</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="N10" s="16">
+        <v>7.73</v>
+      </c>
+      <c r="O10" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1244</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-219.86642977856999</v>
+      </c>
+      <c r="J11" s="16">
+        <v>-17.7</v>
+      </c>
+      <c r="K11" s="15">
+        <v>109</v>
+      </c>
+      <c r="L11" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16">
+        <v>11.66</v>
+      </c>
+      <c r="O11" s="31">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E12" s="14">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1241</v>
+      </c>
+      <c r="I12" s="16">
+        <v>-41.318215046585401</v>
+      </c>
+      <c r="J12" s="16">
+        <v>-3.3</v>
+      </c>
+      <c r="K12" s="15">
+        <v>89</v>
+      </c>
+      <c r="L12" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2.21</v>
+      </c>
+      <c r="N12" s="16">
+        <v>17.96</v>
+      </c>
+      <c r="O12" s="31">
+        <v>299.64</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E13" s="14">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1243</v>
+      </c>
+      <c r="I13" s="16">
+        <v>306.39447757701998</v>
+      </c>
+      <c r="J13" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="K13" s="15">
+        <v>80</v>
+      </c>
+      <c r="L13" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="M13" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="N13" s="16">
+        <v>29.49</v>
+      </c>
+      <c r="O13" s="31">
+        <v>465.98</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1240</v>
+      </c>
+      <c r="I14" s="16">
+        <v>54.836606223177498</v>
+      </c>
+      <c r="J14" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>44</v>
+      </c>
+      <c r="L14" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3.19</v>
+      </c>
+      <c r="N14" s="16">
+        <v>57.33</v>
+      </c>
+      <c r="O14" s="31">
+        <v>997.02</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E15" s="14">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1179</v>
+      </c>
+      <c r="I15" s="16">
+        <v>184.91329048001799</v>
+      </c>
+      <c r="J15" s="16">
+        <v>15.7</v>
+      </c>
+      <c r="K15" s="15">
+        <v>23</v>
+      </c>
+      <c r="L15" s="14">
+        <v>2</v>
+      </c>
+      <c r="M15" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="N15" s="16">
+        <v>122.57</v>
+      </c>
+      <c r="O15" s="31">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3725</v>
+      </c>
+      <c r="I16" s="16">
+        <v>-77.252262175989998</v>
+      </c>
+      <c r="J16" s="16">
+        <v>-2.1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>2106</v>
+      </c>
+      <c r="L16" s="14">
+        <v>56.5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="O16" s="31">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1239</v>
+      </c>
+      <c r="I17" s="16">
+        <v>-18.966967331043701</v>
+      </c>
+      <c r="J17" s="16">
+        <v>-1.5</v>
+      </c>
+      <c r="K17" s="15">
+        <v>832</v>
+      </c>
+      <c r="L17" s="14">
+        <v>67.2</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="O17" s="31">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E18" s="14">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1241</v>
+      </c>
+      <c r="I18" s="16">
+        <v>-4.4730255689691703</v>
+      </c>
+      <c r="J18" s="16">
+        <v>-0.4</v>
+      </c>
+      <c r="K18" s="15">
+        <v>702</v>
+      </c>
+      <c r="L18" s="14">
+        <v>56.6</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="O18" s="31">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E19" s="14">
+        <v>8</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1245</v>
+      </c>
+      <c r="I19" s="16">
+        <v>-53.812269275977101</v>
+      </c>
+      <c r="J19" s="16">
+        <v>-4.3</v>
+      </c>
+      <c r="K19" s="15">
+        <v>572</v>
+      </c>
+      <c r="L19" s="14">
+        <v>45.9</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="N19" s="16">
+        <v>2.14</v>
+      </c>
+      <c r="O19" s="31">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1244</v>
+      </c>
+      <c r="I20" s="16">
+        <v>-81.564340134785397</v>
+      </c>
+      <c r="J20" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K20" s="15">
+        <v>464</v>
+      </c>
+      <c r="L20" s="14">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M20" s="16">
+        <v>1.55</v>
+      </c>
+      <c r="N20" s="16">
+        <v>2.59</v>
+      </c>
+      <c r="O20" s="31">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E21" s="14">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1241</v>
+      </c>
+      <c r="I21" s="16">
+        <v>7.6663881481194203</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="15">
+        <v>410</v>
+      </c>
+      <c r="L21" s="14">
+        <v>33</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="N21" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="O21" s="31">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E22" s="14">
+        <v>8</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1243</v>
+      </c>
+      <c r="I22" s="16">
+        <v>42.749788626144301</v>
+      </c>
+      <c r="J22" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="K22" s="15">
+        <v>338</v>
+      </c>
+      <c r="L22" s="14">
+        <v>27.2</v>
+      </c>
+      <c r="M22" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="N22" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="O22" s="31">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E23" s="14">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1237</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1240</v>
+      </c>
+      <c r="I23" s="16">
+        <v>-96.211308345349806</v>
+      </c>
+      <c r="J23" s="16">
+        <v>-7.8</v>
+      </c>
+      <c r="K23" s="15">
+        <v>228</v>
+      </c>
+      <c r="L23" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1.48</v>
+      </c>
+      <c r="N23" s="16">
+        <v>6.41</v>
+      </c>
+      <c r="O23" s="31">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E24" s="26">
+        <v>8</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1237</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1179</v>
+      </c>
+      <c r="I24" s="28">
+        <v>-25.222955000790499</v>
+      </c>
+      <c r="J24" s="28">
+        <v>-2.1</v>
+      </c>
+      <c r="K24" s="27">
+        <v>161</v>
+      </c>
+      <c r="L24" s="26">
+        <v>13.7</v>
+      </c>
+      <c r="M24" s="28">
+        <v>1.69</v>
+      </c>
+      <c r="N24" s="28">
+        <v>11.74</v>
+      </c>
+      <c r="O24" s="32">
+        <v>88.72</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E25" s="19">
+        <v>7</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1184</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1183</v>
+      </c>
+      <c r="I25" s="21">
+        <v>16.3006113634118</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="K25" s="20">
+        <v>487</v>
+      </c>
+      <c r="L25" s="19">
+        <v>41.2</v>
+      </c>
+      <c r="M25" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N25" s="21">
+        <v>2.77</v>
+      </c>
+      <c r="O25" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E26" s="14">
+        <v>7</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H26" s="15">
+        <v>145</v>
+      </c>
+      <c r="I26" s="16">
+        <v>-4.1985348936582101</v>
+      </c>
+      <c r="J26" s="16">
+        <v>-2.9</v>
+      </c>
+      <c r="K26" s="15">
+        <v>94</v>
+      </c>
+      <c r="L26" s="14">
+        <v>64.8</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1.55</v>
+      </c>
+      <c r="O26" s="31">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E27" s="14">
+        <v>7</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H27" s="15">
+        <v>420</v>
+      </c>
+      <c r="I27" s="16">
+        <v>2.4769198313132201</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>233</v>
+      </c>
+      <c r="L27" s="14">
+        <v>55.5</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1.91</v>
+      </c>
+      <c r="O27" s="31">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E28" s="14">
+        <v>7</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H28" s="15">
+        <v>684</v>
+      </c>
+      <c r="I28" s="16">
+        <v>40.678057257966202</v>
+      </c>
+      <c r="J28" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="K28" s="15">
+        <v>350</v>
+      </c>
+      <c r="L28" s="14">
+        <v>51.2</v>
+      </c>
+      <c r="M28" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N28" s="16">
+        <v>2.19</v>
+      </c>
+      <c r="O28" s="31">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E29" s="14">
+        <v>7</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1183</v>
+      </c>
+      <c r="I29" s="16">
+        <v>16.3006113634118</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="K29" s="15">
+        <v>487</v>
+      </c>
+      <c r="L29" s="14">
+        <v>41.2</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N29" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="O29" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E30" s="14">
+        <v>7</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I30" s="16">
+        <v>-35.775364162441299</v>
+      </c>
+      <c r="J30" s="16">
+        <v>-3</v>
+      </c>
+      <c r="K30" s="15">
+        <v>256</v>
+      </c>
+      <c r="L30" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="M30" s="16">
+        <v>1.49</v>
+      </c>
+      <c r="N30" s="16">
+        <v>5</v>
+      </c>
+      <c r="O30" s="31">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E31" s="14">
+        <v>7</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I31" s="16">
+        <v>71.492247600278702</v>
+      </c>
+      <c r="J31" s="16">
+        <v>6</v>
+      </c>
+      <c r="K31" s="15">
+        <v>187</v>
+      </c>
+      <c r="L31" s="14">
+        <v>15.8</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="N31" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="O31" s="31">
+        <v>48.39</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E32" s="14">
+        <v>7</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1189</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-56.337893733951198</v>
+      </c>
+      <c r="J32" s="16">
+        <v>-4.7</v>
+      </c>
+      <c r="K32" s="15">
+        <v>113</v>
+      </c>
+      <c r="L32" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="N32" s="16">
+        <v>13.41</v>
+      </c>
+      <c r="O32" s="31">
+        <v>245.71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E33" s="14">
+        <v>7</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1188</v>
+      </c>
+      <c r="I33" s="16">
+        <v>-155.55195473514399</v>
+      </c>
+      <c r="J33" s="16">
+        <v>-13.1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>58</v>
+      </c>
+      <c r="L33" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M33" s="16">
+        <v>2.08</v>
+      </c>
+      <c r="N33" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="O33" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E34" s="14">
+        <v>7</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I34" s="16">
+        <v>-37.347104638180703</v>
+      </c>
+      <c r="J34" s="16">
+        <v>-3.1</v>
+      </c>
+      <c r="K34" s="15">
+        <v>44</v>
+      </c>
+      <c r="L34" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="M34" s="16">
+        <v>2.83</v>
+      </c>
+      <c r="N34" s="16">
+        <v>49.1</v>
+      </c>
+      <c r="O34" s="31">
+        <v>612.49</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E35" s="14">
+        <v>7</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1153</v>
+      </c>
+      <c r="I35" s="16">
+        <v>-89.286812746217606</v>
+      </c>
+      <c r="J35" s="16">
+        <v>-7.7</v>
+      </c>
+      <c r="K35" s="15">
+        <v>26</v>
+      </c>
+      <c r="L35" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M35" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N35" s="16">
+        <v>116.23</v>
+      </c>
+      <c r="O35" s="31">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E36" s="14">
+        <v>7</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H36" s="15">
+        <v>2</v>
+      </c>
+      <c r="I36" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J36" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="N36" s="16">
+        <v>11.56</v>
+      </c>
+      <c r="O36" s="31">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E37" s="14">
+        <v>7</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3557</v>
+      </c>
+      <c r="I37" s="16">
+        <v>-308.18603442022197</v>
+      </c>
+      <c r="J37" s="16">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="K37" s="15">
+        <v>1644</v>
+      </c>
+      <c r="L37" s="14">
+        <v>46.2</v>
+      </c>
+      <c r="M37" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="N37" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="O37" s="31">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E38" s="14">
+        <v>7</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1183</v>
+      </c>
+      <c r="I38" s="16">
+        <v>-49.547322109287599</v>
+      </c>
+      <c r="J38" s="16">
+        <v>-4.2</v>
+      </c>
+      <c r="K38" s="15">
+        <v>721</v>
+      </c>
+      <c r="L38" s="14">
+        <v>60.9</v>
+      </c>
+      <c r="M38" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="N38" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="O38" s="31">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E39" s="14">
+        <v>7</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I39" s="16">
+        <v>-152.198943924236</v>
+      </c>
+      <c r="J39" s="16">
+        <v>-12.8</v>
+      </c>
+      <c r="K39" s="15">
+        <v>512</v>
+      </c>
+      <c r="L39" s="14">
+        <v>43.1</v>
+      </c>
+      <c r="M39" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N39" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="O39" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E40" s="14">
+        <v>7</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I40" s="16">
+        <v>-106.43976838669801</v>
+      </c>
+      <c r="J40" s="16">
+        <v>-9</v>
+      </c>
+      <c r="K40" s="15">
+        <v>411</v>
+      </c>
+      <c r="L40" s="14">
+        <v>34.6</v>
+      </c>
+      <c r="M40" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="N40" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="O40" s="31">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E41" s="14">
+        <v>7</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1189</v>
+      </c>
+      <c r="I41" s="16">
+        <v>-161.903104244259</v>
+      </c>
+      <c r="J41" s="16">
+        <v>-13.6</v>
+      </c>
+      <c r="K41" s="15">
+        <v>299</v>
+      </c>
+      <c r="L41" s="14">
+        <v>25.1</v>
+      </c>
+      <c r="M41" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="N41" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="O41" s="31">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E42" s="14">
+        <v>7</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1188</v>
+      </c>
+      <c r="I42" s="16">
+        <v>-322.32520728842502</v>
+      </c>
+      <c r="J42" s="16">
+        <v>-27.1</v>
+      </c>
+      <c r="K42" s="15">
+        <v>183</v>
+      </c>
+      <c r="L42" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="M42" s="16">
+        <v>1.53</v>
+      </c>
+      <c r="N42" s="16">
+        <v>5.54</v>
+      </c>
+      <c r="O42" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E43" s="14">
+        <v>7</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1187</v>
+      </c>
+      <c r="I43" s="16">
+        <v>-255.68611559491799</v>
+      </c>
+      <c r="J43" s="16">
+        <v>-21.5</v>
+      </c>
+      <c r="K43" s="15">
+        <v>136</v>
+      </c>
+      <c r="L43" s="14">
+        <v>11.5</v>
+      </c>
+      <c r="M43" s="16">
+        <v>2.02</v>
+      </c>
+      <c r="N43" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O43" s="31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E44" s="14">
+        <v>7</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1184</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1153</v>
+      </c>
+      <c r="I44" s="16">
+        <v>-455.90597637098301</v>
+      </c>
+      <c r="J44" s="16">
+        <v>-39.5</v>
+      </c>
+      <c r="K44" s="15">
+        <v>73</v>
+      </c>
+      <c r="L44" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="M44" s="16">
+        <v>1.49</v>
+      </c>
+      <c r="N44" s="16">
+        <v>21.23</v>
+      </c>
+      <c r="O44" s="31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E45" s="26">
+        <v>7</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G45" s="27">
+        <v>1184</v>
+      </c>
+      <c r="H45" s="27">
+        <v>2</v>
+      </c>
+      <c r="I45" s="28">
+        <v>-6.4616297403990705E-2</v>
+      </c>
+      <c r="J45" s="28">
+        <v>-3.2</v>
+      </c>
+      <c r="K45" s="27">
+        <v>1</v>
+      </c>
+      <c r="L45" s="26">
+        <v>50</v>
+      </c>
+      <c r="M45" s="28">
+        <v>1.94</v>
+      </c>
+      <c r="N45" s="28">
+        <v>2.89</v>
+      </c>
+      <c r="O45" s="32">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E46" s="19">
+        <v>6</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G46" s="20">
+        <v>687</v>
+      </c>
+      <c r="H46" s="20">
+        <v>681</v>
+      </c>
+      <c r="I46" s="21">
+        <v>-16.729384891517601</v>
+      </c>
+      <c r="J46" s="21">
+        <v>-2.5</v>
+      </c>
+      <c r="K46" s="20">
+        <v>291</v>
+      </c>
+      <c r="L46" s="19">
+        <v>42.7</v>
+      </c>
+      <c r="M46" s="21">
+        <v>1.08</v>
+      </c>
+      <c r="N46" s="21">
+        <v>2.54</v>
+      </c>
+      <c r="O46" s="30">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E47" s="14">
+        <v>6</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G47" s="15">
+        <v>687</v>
+      </c>
+      <c r="H47" s="15">
+        <v>133</v>
+      </c>
+      <c r="I47" s="16">
+        <v>8.0790424848654503</v>
+      </c>
+      <c r="J47" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>93</v>
+      </c>
+      <c r="L47" s="14">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M47" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="N47" s="16">
+        <v>1.53</v>
+      </c>
+      <c r="O47" s="31">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E48" s="14">
+        <v>6</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G48" s="15">
+        <v>687</v>
+      </c>
+      <c r="H48" s="15">
+        <v>319</v>
+      </c>
+      <c r="I48" s="16">
+        <v>-1.0547303153955701</v>
+      </c>
+      <c r="J48" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="K48" s="15">
+        <v>178</v>
+      </c>
+      <c r="L48" s="14">
+        <v>55.8</v>
+      </c>
+      <c r="M48" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="N48" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="O48" s="31">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G49" s="15">
+        <v>687</v>
+      </c>
+      <c r="H49" s="15">
+        <v>462</v>
+      </c>
+      <c r="I49" s="16">
+        <v>-29.175235563555098</v>
+      </c>
+      <c r="J49" s="16">
+        <v>-6.3</v>
+      </c>
+      <c r="K49" s="15">
+        <v>223</v>
+      </c>
+      <c r="L49" s="14">
+        <v>48.3</v>
+      </c>
+      <c r="M49" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="N49" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="O49" s="31">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G50" s="15">
+        <v>687</v>
+      </c>
+      <c r="H50" s="15">
+        <v>681</v>
+      </c>
+      <c r="I50" s="16">
+        <v>-16.729384891517601</v>
+      </c>
+      <c r="J50" s="16">
+        <v>-2.5</v>
+      </c>
+      <c r="K50" s="15">
+        <v>291</v>
+      </c>
+      <c r="L50" s="14">
+        <v>42.7</v>
+      </c>
+      <c r="M50" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="N50" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="O50" s="31">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E51" s="14">
+        <v>6</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G51" s="15">
+        <v>687</v>
+      </c>
+      <c r="H51" s="15">
+        <v>684</v>
+      </c>
+      <c r="I51" s="16">
+        <v>78.739455555379806</v>
+      </c>
+      <c r="J51" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="K51" s="15">
+        <v>172</v>
+      </c>
+      <c r="L51" s="14">
+        <v>25.1</v>
+      </c>
+      <c r="M51" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="N51" s="16">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="O51" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>48</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E52" s="14">
+        <v>6</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G52" s="15">
+        <v>687</v>
+      </c>
+      <c r="H52" s="15">
+        <v>683</v>
+      </c>
+      <c r="I52" s="16">
+        <v>-69.667370090235494</v>
+      </c>
+      <c r="J52" s="16">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="K52" s="15">
+        <v>97</v>
+      </c>
+      <c r="L52" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="M52" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="N52" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="O52" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E53" s="14">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G53" s="15">
+        <v>687</v>
+      </c>
+      <c r="H53" s="15">
+        <v>685</v>
+      </c>
+      <c r="I53" s="16">
+        <v>96.188123447650995</v>
+      </c>
+      <c r="J53" s="16">
+        <v>14</v>
+      </c>
+      <c r="K53" s="15">
+        <v>71</v>
+      </c>
+      <c r="L53" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="M53" s="16">
+        <v>1.83</v>
+      </c>
+      <c r="N53" s="16">
+        <v>16.47</v>
+      </c>
+      <c r="O53" s="31">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E54" s="14">
+        <v>6</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G54" s="15">
+        <v>687</v>
+      </c>
+      <c r="H54" s="15">
+        <v>682</v>
+      </c>
+      <c r="I54" s="16">
+        <v>-56.215936981423297</v>
+      </c>
+      <c r="J54" s="16">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="K54" s="15">
+        <v>31</v>
+      </c>
+      <c r="L54" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="M54" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="N54" s="16">
+        <v>33.44</v>
+      </c>
+      <c r="O54" s="31">
+        <v>262.60000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>51</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E55" s="14">
+        <v>6</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G55" s="15">
+        <v>687</v>
+      </c>
+      <c r="H55" s="15">
+        <v>671</v>
+      </c>
+      <c r="I55" s="16">
+        <v>-88.980085475202003</v>
+      </c>
+      <c r="J55" s="16">
+        <v>-13.3</v>
+      </c>
+      <c r="K55" s="15">
+        <v>11</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M55" s="16">
+        <v>3.91</v>
+      </c>
+      <c r="N55" s="16">
+        <v>87.8</v>
+      </c>
+      <c r="O55" s="31">
+        <v>540.35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E56" s="14">
+        <v>6</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G56" s="15">
+        <v>687</v>
+      </c>
+      <c r="H56" s="15">
+        <v>6</v>
+      </c>
+      <c r="I56" s="16">
+        <v>-1.0999999999999901</v>
+      </c>
+      <c r="J56" s="16">
+        <v>-18.3</v>
+      </c>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="M56" s="16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N56" s="16">
+        <v>10.18</v>
+      </c>
+      <c r="O56" s="31">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E57" s="14">
+        <v>6</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G57" s="15">
+        <v>687</v>
+      </c>
+      <c r="H57" s="15">
+        <v>6</v>
+      </c>
+      <c r="I57" s="16">
+        <v>-6</v>
+      </c>
+      <c r="J57" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14">
+        <v>0</v>
+      </c>
+      <c r="M57" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="N57" s="16">
+        <v>12.46</v>
+      </c>
+      <c r="O57" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E58" s="14">
+        <v>6</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G58" s="15">
+        <v>687</v>
+      </c>
+      <c r="H58" s="15">
+        <v>2048</v>
+      </c>
+      <c r="I58" s="16">
+        <v>-92.624005377271999</v>
+      </c>
+      <c r="J58" s="16">
+        <v>-4.5</v>
+      </c>
+      <c r="K58" s="15">
+        <v>993</v>
+      </c>
+      <c r="L58" s="14">
+        <v>48.5</v>
+      </c>
+      <c r="M58" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="N58" s="16">
+        <v>2.19</v>
+      </c>
+      <c r="O58" s="31">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E59" s="14">
+        <v>6</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G59" s="15">
+        <v>687</v>
+      </c>
+      <c r="H59" s="15">
+        <v>681</v>
+      </c>
+      <c r="I59" s="16">
+        <v>-45.124805194935902</v>
+      </c>
+      <c r="J59" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K59" s="15">
+        <v>422</v>
+      </c>
+      <c r="L59" s="14">
+        <v>62</v>
+      </c>
+      <c r="M59" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="N59" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="O59" s="31">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E60" s="14">
+        <v>6</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G60" s="15">
+        <v>687</v>
+      </c>
+      <c r="H60" s="15">
+        <v>684</v>
+      </c>
+      <c r="I60" s="16">
+        <v>7.1178301990775701</v>
+      </c>
+      <c r="J60" s="16">
+        <v>1</v>
+      </c>
+      <c r="K60" s="15">
+        <v>341</v>
+      </c>
+      <c r="L60" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="M60" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="N60" s="16">
+        <v>2.08</v>
+      </c>
+      <c r="O60" s="31">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E61" s="14">
+        <v>6</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G61" s="15">
+        <v>687</v>
+      </c>
+      <c r="H61" s="15">
+        <v>683</v>
+      </c>
+      <c r="I61" s="16">
+        <v>-54.617030381413699</v>
+      </c>
+      <c r="J61" s="16">
+        <v>-8</v>
+      </c>
+      <c r="K61" s="15">
+        <v>230</v>
+      </c>
+      <c r="L61" s="14">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="M61" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="N61" s="16">
+        <v>2.92</v>
+      </c>
+      <c r="O61" s="31">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>58</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E62" s="14">
+        <v>6</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G62" s="15">
+        <v>687</v>
+      </c>
+      <c r="H62" s="15">
+        <v>685</v>
+      </c>
+      <c r="I62" s="16">
+        <v>10.5534848842999</v>
+      </c>
+      <c r="J62" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="K62" s="15">
+        <v>175</v>
+      </c>
+      <c r="L62" s="14">
+        <v>25.5</v>
+      </c>
+      <c r="M62" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="N62" s="16">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O62" s="31">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>59</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E63" s="14">
+        <v>6</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G63" s="15">
+        <v>687</v>
+      </c>
+      <c r="H63" s="15">
+        <v>682</v>
+      </c>
+      <c r="I63" s="16">
+        <v>-52.697275917113302</v>
+      </c>
+      <c r="J63" s="16">
+        <v>-7.7</v>
+      </c>
+      <c r="K63" s="15">
+        <v>111</v>
+      </c>
+      <c r="L63" s="14">
+        <v>16.3</v>
+      </c>
+      <c r="M63" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="N63" s="16">
+        <v>7.57</v>
+      </c>
+      <c r="O63" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E64" s="14">
+        <v>6</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G64" s="15">
+        <v>687</v>
+      </c>
+      <c r="H64" s="15">
+        <v>671</v>
+      </c>
+      <c r="I64" s="16">
+        <v>-140.46016836157301</v>
+      </c>
+      <c r="J64" s="16">
+        <v>-20.9</v>
+      </c>
+      <c r="K64" s="15">
+        <v>61</v>
+      </c>
+      <c r="L64" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="M64" s="16">
+        <v>1.83</v>
+      </c>
+      <c r="N64" s="16">
+        <v>18.55</v>
+      </c>
+      <c r="O64" s="31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>61</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E65" s="14">
+        <v>6</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G65" s="15">
+        <v>687</v>
+      </c>
+      <c r="H65" s="15">
+        <v>6</v>
+      </c>
+      <c r="I65" s="16">
+        <v>-3.4499845715405502</v>
+      </c>
+      <c r="J65" s="16">
+        <v>-57.5</v>
+      </c>
+      <c r="K65" s="15">
+        <v>1</v>
+      </c>
+      <c r="L65" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="M65" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N65" s="16">
+        <v>7.43</v>
+      </c>
+      <c r="O65" s="31">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>62</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E66" s="26">
+        <v>6</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G66" s="27">
+        <v>687</v>
+      </c>
+      <c r="H66" s="27">
+        <v>6</v>
+      </c>
+      <c r="I66" s="28">
+        <v>-2.9446712493272198</v>
+      </c>
+      <c r="J66" s="28">
+        <v>-49.1</v>
+      </c>
+      <c r="K66" s="27">
+        <v>1</v>
+      </c>
+      <c r="L66" s="26">
+        <v>16.7</v>
+      </c>
+      <c r="M66" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N66" s="28">
+        <v>10.84</v>
+      </c>
+      <c r="O66" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E67" s="19">
+        <v>4</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G67" s="20">
+        <v>16</v>
+      </c>
+      <c r="H67" s="20">
+        <v>16</v>
+      </c>
+      <c r="I67" s="21">
+        <v>3.33191764875991</v>
+      </c>
+      <c r="J67" s="21">
+        <v>20.8</v>
+      </c>
+      <c r="K67" s="20">
+        <v>9</v>
+      </c>
+      <c r="L67" s="19">
+        <v>56.2</v>
+      </c>
+      <c r="M67" s="21">
+        <v>1.29</v>
+      </c>
+      <c r="N67" s="21">
+        <v>2.46</v>
+      </c>
+      <c r="O67" s="30">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E68" s="14">
+        <v>4</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G68" s="15">
+        <v>16</v>
+      </c>
+      <c r="H68" s="15">
+        <v>4</v>
+      </c>
+      <c r="I68" s="16">
+        <v>-1.21398890863023</v>
+      </c>
+      <c r="J68" s="16">
+        <v>-30.3</v>
+      </c>
+      <c r="K68" s="15">
+        <v>2</v>
+      </c>
+      <c r="L68" s="14">
+        <v>50</v>
+      </c>
+      <c r="M68" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="N68" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="O68" s="31">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E69" s="14">
+        <v>4</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G69" s="15">
+        <v>16</v>
+      </c>
+      <c r="H69" s="15">
+        <v>8</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0.69607495891856497</v>
+      </c>
+      <c r="J69" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K69" s="15">
+        <v>5</v>
+      </c>
+      <c r="L69" s="14">
+        <v>62.5</v>
+      </c>
+      <c r="M69" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="N69" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="O69" s="31">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>66</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E70" s="14">
+        <v>4</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G70" s="15">
+        <v>16</v>
+      </c>
+      <c r="H70" s="15">
+        <v>11</v>
+      </c>
+      <c r="I70" s="16">
+        <v>2.2379601009185599</v>
+      </c>
+      <c r="J70" s="16">
+        <v>20.3</v>
+      </c>
+      <c r="K70" s="15">
+        <v>7</v>
+      </c>
+      <c r="L70" s="14">
+        <v>63.6</v>
+      </c>
+      <c r="M70" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="N70" s="16">
+        <v>2</v>
+      </c>
+      <c r="O70" s="31">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>67</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E71" s="40">
+        <v>4</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G71" s="41">
+        <v>16</v>
+      </c>
+      <c r="H71" s="41">
+        <v>16</v>
+      </c>
+      <c r="I71" s="42">
+        <v>3.33191764875991</v>
+      </c>
+      <c r="J71" s="42">
+        <v>20.8</v>
+      </c>
+      <c r="K71" s="41">
+        <v>9</v>
+      </c>
+      <c r="L71" s="40">
+        <v>56.2</v>
+      </c>
+      <c r="M71" s="42">
+        <v>1.29</v>
+      </c>
+      <c r="N71" s="42">
+        <v>2.46</v>
+      </c>
+      <c r="O71" s="43">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>68</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E72" s="40">
+        <v>4</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G72" s="41">
+        <v>16</v>
+      </c>
+      <c r="H72" s="41">
+        <v>16</v>
+      </c>
+      <c r="I72" s="42">
+        <v>68.585799369388099</v>
+      </c>
+      <c r="J72" s="42">
+        <v>428.7</v>
+      </c>
+      <c r="K72" s="41">
+        <v>6</v>
+      </c>
+      <c r="L72" s="40">
+        <v>37.5</v>
+      </c>
+      <c r="M72" s="42">
+        <v>2.62</v>
+      </c>
+      <c r="N72" s="42">
+        <v>7.98</v>
+      </c>
+      <c r="O72" s="43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>69</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E73" s="14">
+        <v>4</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G73" s="15">
+        <v>16</v>
+      </c>
+      <c r="H73" s="15">
+        <v>16</v>
+      </c>
+      <c r="I73" s="16">
+        <v>-6.2061433189999997</v>
+      </c>
+      <c r="J73" s="16">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="K73" s="15">
+        <v>1</v>
+      </c>
+      <c r="L73" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="M73" s="16">
+        <v>3.89</v>
+      </c>
+      <c r="N73" s="16">
+        <v>22.36</v>
+      </c>
+      <c r="O73" s="31">
+        <v>104.09</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>70</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E74" s="14">
+        <v>4</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G74" s="15">
+        <v>16</v>
+      </c>
+      <c r="H74" s="15">
+        <v>16</v>
+      </c>
+      <c r="I74" s="16">
+        <v>-16</v>
+      </c>
+      <c r="J74" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K74" s="15">
+        <v>0</v>
+      </c>
+      <c r="L74" s="14">
+        <v>0</v>
+      </c>
+      <c r="M74" s="16">
+        <v>7.28</v>
+      </c>
+      <c r="N74" s="16">
+        <v>54.73</v>
+      </c>
+      <c r="O74" s="31">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>71</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E75" s="14">
+        <v>4</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G75" s="15">
+        <v>16</v>
+      </c>
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="15">
+        <v>0</v>
+      </c>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="24"/>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>72</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E76" s="14">
+        <v>4</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G76" s="15">
+        <v>16</v>
+      </c>
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16"/>
+      <c r="K76" s="15">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="24"/>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>73</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E77" s="14">
+        <v>4</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G77" s="15">
+        <v>16</v>
+      </c>
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16"/>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="24"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>74</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E78" s="14">
+        <v>4</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G78" s="15">
+        <v>16</v>
+      </c>
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="16">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="15">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="24"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E79" s="14">
+        <v>4</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G79" s="15">
+        <v>16</v>
+      </c>
+      <c r="H79" s="15">
+        <v>48</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="14">
+        <v>0</v>
+      </c>
+      <c r="M79" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="N79" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="O79" s="24">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>76</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E80" s="14">
+        <v>4</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G80" s="15">
+        <v>16</v>
+      </c>
+      <c r="H80" s="15">
+        <v>16</v>
+      </c>
+      <c r="I80" s="16">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14">
+        <v>0</v>
+      </c>
+      <c r="M80" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="N80" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="O80" s="24">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>77</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E81" s="14">
+        <v>4</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G81" s="15">
+        <v>16</v>
+      </c>
+      <c r="H81" s="15">
+        <v>16</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="15">
+        <v>0</v>
+      </c>
+      <c r="L81" s="14">
+        <v>0</v>
+      </c>
+      <c r="M81" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="N81" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O81" s="24">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>78</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E82" s="14">
+        <v>4</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G82" s="15">
+        <v>16</v>
+      </c>
+      <c r="H82" s="15">
+        <v>16</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14">
+        <v>0</v>
+      </c>
+      <c r="M82" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="N82" s="14">
+        <v>4.72</v>
+      </c>
+      <c r="O82" s="24">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>79</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E83" s="14">
+        <v>4</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G83" s="15">
+        <v>16</v>
+      </c>
+      <c r="H83" s="15">
+        <v>16</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+      <c r="L83" s="14">
+        <v>0</v>
+      </c>
+      <c r="M83" s="14">
+        <v>1.82</v>
+      </c>
+      <c r="N83" s="14">
+        <v>11.55</v>
+      </c>
+      <c r="O83" s="24">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>80</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E84" s="14">
+        <v>4</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G84" s="15">
+        <v>16</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="16">
+        <v>0</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="24"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>81</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E85" s="14">
+        <v>4</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G85" s="15">
+        <v>16</v>
+      </c>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16"/>
+      <c r="K85" s="15">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="24"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>82</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E86" s="14">
+        <v>4</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G86" s="15">
+        <v>16</v>
+      </c>
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16"/>
+      <c r="K86" s="15">
+        <v>0</v>
+      </c>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="24"/>
+    </row>
+    <row r="87" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E87" s="26">
+        <v>4</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G87" s="27">
+        <v>16</v>
+      </c>
+      <c r="H87" s="27">
+        <v>0</v>
+      </c>
+      <c r="I87" s="28">
+        <v>0</v>
+      </c>
+      <c r="J87" s="28"/>
+      <c r="K87" s="27">
+        <v>0</v>
+      </c>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="29"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>84</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E88" s="19">
+        <v>5</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G88" s="20">
+        <v>239</v>
+      </c>
+      <c r="H88" s="20">
+        <v>238</v>
+      </c>
+      <c r="I88" s="21">
+        <v>-10.722083381135199</v>
+      </c>
+      <c r="J88" s="21">
+        <v>-4.5</v>
+      </c>
+      <c r="K88" s="20">
+        <v>114</v>
+      </c>
+      <c r="L88" s="19">
+        <v>47.9</v>
+      </c>
+      <c r="M88" s="19">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N88" s="19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O88" s="22">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>85</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E89" s="14">
+        <v>5</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G89" s="15">
+        <v>239</v>
+      </c>
+      <c r="H89" s="15">
+        <v>77</v>
+      </c>
+      <c r="I89" s="16">
+        <v>-4.56389183763884</v>
+      </c>
+      <c r="J89" s="16">
+        <v>-5.9</v>
+      </c>
+      <c r="K89" s="15">
+        <v>49</v>
+      </c>
+      <c r="L89" s="14">
+        <v>63.6</v>
+      </c>
+      <c r="M89" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N89" s="14">
+        <v>1.53</v>
+      </c>
+      <c r="O89" s="24">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>86</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E90" s="14">
+        <v>5</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G90" s="15">
+        <v>239</v>
+      </c>
+      <c r="H90" s="15">
+        <v>144</v>
+      </c>
+      <c r="I90" s="16">
+        <v>-9.5411699077960996</v>
+      </c>
+      <c r="J90" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K90" s="15">
+        <v>81</v>
+      </c>
+      <c r="L90" s="14">
+        <v>56.2</v>
+      </c>
+      <c r="M90" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N90" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="O90" s="24">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>87</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E91" s="14">
+        <v>5</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G91" s="15">
+        <v>239</v>
+      </c>
+      <c r="H91" s="15">
+        <v>190</v>
+      </c>
+      <c r="I91" s="16">
+        <v>-17.296288695160399</v>
+      </c>
+      <c r="J91" s="16">
+        <v>-9.1</v>
+      </c>
+      <c r="K91" s="15">
+        <v>96</v>
+      </c>
+      <c r="L91" s="14">
+        <v>50.5</v>
+      </c>
+      <c r="M91" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N91" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="O91" s="24">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>88</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E92" s="14">
+        <v>5</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G92" s="15">
+        <v>239</v>
+      </c>
+      <c r="H92" s="15">
+        <v>238</v>
+      </c>
+      <c r="I92" s="16">
+        <v>-10.722083381135199</v>
+      </c>
+      <c r="J92" s="16">
+        <v>-4.5</v>
+      </c>
+      <c r="K92" s="15">
+        <v>114</v>
+      </c>
+      <c r="L92" s="14">
+        <v>47.9</v>
+      </c>
+      <c r="M92" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N92" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O92" s="24">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>89</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E93" s="35">
+        <v>5</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G93" s="36">
+        <v>239</v>
+      </c>
+      <c r="H93" s="36">
+        <v>238</v>
+      </c>
+      <c r="I93" s="37">
+        <v>36.941227275057201</v>
+      </c>
+      <c r="J93" s="37">
+        <v>15.5</v>
+      </c>
+      <c r="K93" s="36">
+        <v>62</v>
+      </c>
+      <c r="L93" s="35">
+        <v>26.1</v>
+      </c>
+      <c r="M93" s="35">
+        <v>2.21</v>
+      </c>
+      <c r="N93" s="35">
+        <v>5.17</v>
+      </c>
+      <c r="O93" s="38">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>90</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E94" s="35">
+        <v>5</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G94" s="36">
+        <v>239</v>
+      </c>
+      <c r="H94" s="36">
+        <v>239</v>
+      </c>
+      <c r="I94" s="37">
+        <v>88.351939938141001</v>
+      </c>
+      <c r="J94" s="37">
+        <v>37</v>
+      </c>
+      <c r="K94" s="36">
+        <v>32</v>
+      </c>
+      <c r="L94" s="35">
+        <v>13.4</v>
+      </c>
+      <c r="M94" s="35">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N94" s="35">
+        <v>10.5</v>
+      </c>
+      <c r="O94" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>91</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E95" s="14">
+        <v>5</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G95" s="15">
+        <v>239</v>
+      </c>
+      <c r="H95" s="15">
+        <v>238</v>
+      </c>
+      <c r="I95" s="16">
+        <v>-88.482679201538005</v>
+      </c>
+      <c r="J95" s="16">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="K95" s="15">
+        <v>14</v>
+      </c>
+      <c r="L95" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="M95" s="14">
+        <v>3.42</v>
+      </c>
+      <c r="N95" s="14">
+        <v>25.12</v>
+      </c>
+      <c r="O95" s="24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E96" s="14">
+        <v>5</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G96" s="15">
+        <v>239</v>
+      </c>
+      <c r="H96" s="15">
+        <v>237</v>
+      </c>
+      <c r="I96" s="16">
+        <v>19.2868414140327</v>
+      </c>
+      <c r="J96" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="K96" s="15">
+        <v>8</v>
+      </c>
+      <c r="L96" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="M96" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="N96" s="14">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="O96" s="24">
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>93</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E97" s="14">
+        <v>5</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G97" s="15">
+        <v>239</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1</v>
+      </c>
+      <c r="I97" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="J97" s="16">
+        <v>295</v>
+      </c>
+      <c r="K97" s="15">
+        <v>1</v>
+      </c>
+      <c r="L97" s="14">
+        <v>100</v>
+      </c>
+      <c r="M97" s="14">
+        <v>3.95</v>
+      </c>
+      <c r="N97" s="14">
+        <v>3.95</v>
+      </c>
+      <c r="O97" s="24">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>94</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E98" s="14">
+        <v>5</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G98" s="15">
+        <v>239</v>
+      </c>
+      <c r="H98" s="15">
+        <v>1</v>
+      </c>
+      <c r="I98" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J98" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K98" s="15">
+        <v>0</v>
+      </c>
+      <c r="L98" s="14">
+        <v>0</v>
+      </c>
+      <c r="M98" s="14">
+        <v>4.72</v>
+      </c>
+      <c r="N98" s="14">
+        <v>4.72</v>
+      </c>
+      <c r="O98" s="24">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>95</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E99" s="14">
+        <v>5</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G99" s="15">
+        <v>239</v>
+      </c>
+      <c r="H99" s="15">
+        <v>1</v>
+      </c>
+      <c r="I99" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J99" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K99" s="15">
+        <v>0</v>
+      </c>
+      <c r="L99" s="14">
+        <v>0</v>
+      </c>
+      <c r="M99" s="14">
+        <v>9.17</v>
+      </c>
+      <c r="N99" s="14">
+        <v>9.17</v>
+      </c>
+      <c r="O99" s="24">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>96</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E100" s="45">
+        <v>5</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G100" s="46">
+        <v>239</v>
+      </c>
+      <c r="H100" s="46">
+        <v>715</v>
+      </c>
+      <c r="I100" s="47">
+        <v>43.787307680880701</v>
+      </c>
+      <c r="J100" s="47">
+        <v>6.1</v>
+      </c>
+      <c r="K100" s="46">
+        <v>397</v>
+      </c>
+      <c r="L100" s="45">
+        <v>55.5</v>
+      </c>
+      <c r="M100" s="45">
+        <v>1.05</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.13</v>
+      </c>
+      <c r="O100" s="48">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>97</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E101" s="14">
+        <v>5</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G101" s="15">
+        <v>239</v>
+      </c>
+      <c r="H101" s="15">
+        <v>238</v>
+      </c>
+      <c r="I101" s="16">
+        <v>-2.17338517348036</v>
+      </c>
+      <c r="J101" s="16">
+        <v>-0.9</v>
+      </c>
+      <c r="K101" s="15">
+        <v>167</v>
+      </c>
+      <c r="L101" s="14">
+        <v>70.2</v>
+      </c>
+      <c r="M101" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="N101" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="O101" s="24">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>98</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E102" s="14">
+        <v>5</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G102" s="15">
+        <v>239</v>
+      </c>
+      <c r="H102" s="15">
+        <v>238</v>
+      </c>
+      <c r="I102" s="16">
+        <v>6.2541757829861799</v>
+      </c>
+      <c r="J102" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="K102" s="15">
+        <v>129</v>
+      </c>
+      <c r="L102" s="14">
+        <v>54.2</v>
+      </c>
+      <c r="M102" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="N102" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="O102" s="24">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>99</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E103" s="14">
+        <v>5</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G103" s="15">
+        <v>239</v>
+      </c>
+      <c r="H103" s="15">
+        <v>239</v>
+      </c>
+      <c r="I103" s="16">
+        <v>39.706517071374797</v>
+      </c>
+      <c r="J103" s="16">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K103" s="15">
+        <v>101</v>
+      </c>
+      <c r="L103" s="14">
+        <v>42.3</v>
+      </c>
+      <c r="M103" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="N103" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="O103" s="24">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E104" s="14">
+        <v>5</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G104" s="15">
+        <v>239</v>
+      </c>
+      <c r="H104" s="15">
+        <v>238</v>
+      </c>
+      <c r="I104" s="16">
+        <v>-79.576839200820103</v>
+      </c>
+      <c r="J104" s="16">
+        <v>-33.4</v>
+      </c>
+      <c r="K104" s="15">
+        <v>45</v>
+      </c>
+      <c r="L104" s="14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M104" s="14">
+        <v>1.96</v>
+      </c>
+      <c r="N104" s="14">
+        <v>5.42</v>
+      </c>
+      <c r="O104" s="24">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>101</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E105" s="14">
+        <v>5</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G105" s="15">
+        <v>239</v>
+      </c>
+      <c r="H105" s="15">
+        <v>237</v>
+      </c>
+      <c r="I105" s="16">
+        <v>17.457210927697599</v>
+      </c>
+      <c r="J105" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="K105" s="15">
+        <v>23</v>
+      </c>
+      <c r="L105" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M105" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N105" s="14">
+        <v>15.89</v>
+      </c>
+      <c r="O105" s="24">
+        <v>123.26</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>102</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E106" s="14">
+        <v>5</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G106" s="15">
+        <v>239</v>
+      </c>
+      <c r="H106" s="15">
+        <v>1</v>
+      </c>
+      <c r="I106" s="16">
+        <v>1.20997063551185</v>
+      </c>
+      <c r="J106" s="16">
+        <v>121</v>
+      </c>
+      <c r="K106" s="15">
+        <v>1</v>
+      </c>
+      <c r="L106" s="14">
+        <v>100</v>
+      </c>
+      <c r="M106" s="14">
+        <v>2.21</v>
+      </c>
+      <c r="N106" s="14">
+        <v>2.21</v>
+      </c>
+      <c r="O106" s="24">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>103</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E107" s="14">
+        <v>5</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G107" s="15">
+        <v>239</v>
+      </c>
+      <c r="H107" s="15">
+        <v>1</v>
+      </c>
+      <c r="I107" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J107" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0</v>
+      </c>
+      <c r="L107" s="14">
+        <v>0</v>
+      </c>
+      <c r="M107" s="14">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N107" s="14">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O107" s="24">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>104</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E108" s="26">
+        <v>5</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G108" s="27">
+        <v>239</v>
+      </c>
+      <c r="H108" s="27">
+        <v>1</v>
+      </c>
+      <c r="I108" s="28">
+        <v>-1</v>
+      </c>
+      <c r="J108" s="28">
+        <v>-100</v>
+      </c>
+      <c r="K108" s="27">
+        <v>0</v>
+      </c>
+      <c r="L108" s="26">
+        <v>0</v>
+      </c>
+      <c r="M108" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="N108" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="O108" s="29">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>105</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E109" s="19">
+        <v>3</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G109" s="20">
+        <v>4</v>
+      </c>
+      <c r="H109" s="20">
+        <v>4</v>
+      </c>
+      <c r="I109" s="21">
+        <v>3.7667569418386102</v>
+      </c>
+      <c r="J109" s="21">
+        <v>94.2</v>
+      </c>
+      <c r="K109" s="20">
+        <v>2</v>
+      </c>
+      <c r="L109" s="19">
+        <v>50</v>
+      </c>
+      <c r="M109" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="N109" s="19">
+        <v>5.52</v>
+      </c>
+      <c r="O109" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>106</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E110" s="14">
+        <v>3</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G110" s="15">
+        <v>4</v>
+      </c>
+      <c r="H110" s="15">
+        <v>1</v>
+      </c>
+      <c r="I110" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J110" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0</v>
+      </c>
+      <c r="L110" s="14">
+        <v>0</v>
+      </c>
+      <c r="M110" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="N110" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="O110" s="24">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>107</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E111" s="14">
+        <v>3</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G111" s="15">
+        <v>4</v>
+      </c>
+      <c r="H111" s="15">
+        <v>1</v>
+      </c>
+      <c r="I111" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J111" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0</v>
+      </c>
+      <c r="L111" s="14">
+        <v>0</v>
+      </c>
+      <c r="M111" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="N111" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="O111" s="24">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>108</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E112" s="14">
+        <v>3</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G112" s="15">
+        <v>4</v>
+      </c>
+      <c r="H112" s="15">
+        <v>1</v>
+      </c>
+      <c r="I112" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J112" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0</v>
+      </c>
+      <c r="L112" s="14">
+        <v>0</v>
+      </c>
+      <c r="M112" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="N112" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="O112" s="24">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>109</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E113" s="14">
+        <v>3</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G113" s="15">
+        <v>4</v>
+      </c>
+      <c r="H113" s="15">
+        <v>4</v>
+      </c>
+      <c r="I113" s="16">
+        <v>3.7667569418386102</v>
+      </c>
+      <c r="J113" s="16">
+        <v>94.2</v>
+      </c>
+      <c r="K113" s="15">
+        <v>2</v>
+      </c>
+      <c r="L113" s="14">
+        <v>50</v>
+      </c>
+      <c r="M113" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="N113" s="14">
+        <v>5.52</v>
+      </c>
+      <c r="O113" s="24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>110</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E114" s="14">
+        <v>3</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G114" s="15">
+        <v>4</v>
+      </c>
+      <c r="H114" s="15">
+        <v>4</v>
+      </c>
+      <c r="I114" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J114" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0</v>
+      </c>
+      <c r="L114" s="14">
+        <v>0</v>
+      </c>
+      <c r="M114" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="N114" s="14">
+        <v>9.11</v>
+      </c>
+      <c r="O114" s="24">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>111</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E115" s="14">
+        <v>3</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G115" s="15">
+        <v>4</v>
+      </c>
+      <c r="H115" s="15">
+        <v>4</v>
+      </c>
+      <c r="I115" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J115" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0</v>
+      </c>
+      <c r="L115" s="14">
+        <v>0</v>
+      </c>
+      <c r="M115" s="14">
+        <v>7.91</v>
+      </c>
+      <c r="N115" s="14">
+        <v>22.49</v>
+      </c>
+      <c r="O115" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>112</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E116" s="14">
+        <v>3</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G116" s="15">
+        <v>4</v>
+      </c>
+      <c r="H116" s="15">
+        <v>0</v>
+      </c>
+      <c r="I116" s="16">
+        <v>0</v>
+      </c>
+      <c r="J116" s="16"/>
+      <c r="K116" s="15">
+        <v>0</v>
+      </c>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="24"/>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>113</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E117" s="14">
+        <v>3</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G117" s="15">
+        <v>4</v>
+      </c>
+      <c r="H117" s="15">
+        <v>0</v>
+      </c>
+      <c r="I117" s="16">
+        <v>0</v>
+      </c>
+      <c r="J117" s="16"/>
+      <c r="K117" s="15">
+        <v>0</v>
+      </c>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="24"/>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>114</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E118" s="14">
+        <v>3</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G118" s="15">
+        <v>4</v>
+      </c>
+      <c r="H118" s="15">
+        <v>0</v>
+      </c>
+      <c r="I118" s="16">
+        <v>0</v>
+      </c>
+      <c r="J118" s="16"/>
+      <c r="K118" s="15">
+        <v>0</v>
+      </c>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="24"/>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>115</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E119" s="14">
+        <v>3</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G119" s="15">
+        <v>4</v>
+      </c>
+      <c r="H119" s="15">
+        <v>0</v>
+      </c>
+      <c r="I119" s="16">
+        <v>0</v>
+      </c>
+      <c r="J119" s="16"/>
+      <c r="K119" s="15">
+        <v>0</v>
+      </c>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="24"/>
+    </row>
+    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>116</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E120" s="14">
+        <v>3</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G120" s="15">
+        <v>4</v>
+      </c>
+      <c r="H120" s="15">
+        <v>0</v>
+      </c>
+      <c r="I120" s="16">
+        <v>0</v>
+      </c>
+      <c r="J120" s="16"/>
+      <c r="K120" s="15">
+        <v>0</v>
+      </c>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="24"/>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>117</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E121" s="14">
+        <v>3</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G121" s="15">
+        <v>4</v>
+      </c>
+      <c r="H121" s="15">
+        <v>12</v>
+      </c>
+      <c r="I121" s="16">
+        <v>0</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0</v>
+      </c>
+      <c r="K121" s="15">
+        <v>0</v>
+      </c>
+      <c r="L121" s="14">
+        <v>0</v>
+      </c>
+      <c r="M121" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="N121" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="O121" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>118</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E122" s="14">
+        <v>3</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G122" s="15">
+        <v>4</v>
+      </c>
+      <c r="H122" s="15">
+        <v>4</v>
+      </c>
+      <c r="I122" s="16">
+        <v>0</v>
+      </c>
+      <c r="J122" s="16">
+        <v>0</v>
+      </c>
+      <c r="K122" s="15">
+        <v>0</v>
+      </c>
+      <c r="L122" s="14">
+        <v>0</v>
+      </c>
+      <c r="M122" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="N122" s="14">
+        <v>1.96</v>
+      </c>
+      <c r="O122" s="24">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>119</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E123" s="14">
+        <v>3</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G123" s="15">
+        <v>4</v>
+      </c>
+      <c r="H123" s="15">
+        <v>4</v>
+      </c>
+      <c r="I123" s="16">
+        <v>0</v>
+      </c>
+      <c r="J123" s="16">
+        <v>0</v>
+      </c>
+      <c r="K123" s="15">
+        <v>0</v>
+      </c>
+      <c r="L123" s="14">
+        <v>0</v>
+      </c>
+      <c r="M123" s="14">
+        <v>2.44</v>
+      </c>
+      <c r="N123" s="14">
+        <v>2.88</v>
+      </c>
+      <c r="O123" s="24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>120</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E124" s="14">
+        <v>3</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G124" s="15">
+        <v>4</v>
+      </c>
+      <c r="H124" s="15">
+        <v>4</v>
+      </c>
+      <c r="I124" s="16">
+        <v>0</v>
+      </c>
+      <c r="J124" s="16">
+        <v>0</v>
+      </c>
+      <c r="K124" s="15">
+        <v>0</v>
+      </c>
+      <c r="L124" s="14">
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
+        <v>3.14</v>
+      </c>
+      <c r="N124" s="14">
+        <v>5.94</v>
+      </c>
+      <c r="O124" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>121</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E125" s="14">
+        <v>3</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G125" s="15">
+        <v>4</v>
+      </c>
+      <c r="H125" s="15">
+        <v>0</v>
+      </c>
+      <c r="I125" s="16">
+        <v>0</v>
+      </c>
+      <c r="J125" s="16"/>
+      <c r="K125" s="15">
+        <v>0</v>
+      </c>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="24"/>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>122</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E126" s="14">
+        <v>3</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G126" s="15">
+        <v>4</v>
+      </c>
+      <c r="H126" s="15">
+        <v>0</v>
+      </c>
+      <c r="I126" s="16">
+        <v>0</v>
+      </c>
+      <c r="J126" s="16"/>
+      <c r="K126" s="15">
+        <v>0</v>
+      </c>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="24"/>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>123</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E127" s="14">
+        <v>3</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G127" s="15">
+        <v>4</v>
+      </c>
+      <c r="H127" s="15">
+        <v>0</v>
+      </c>
+      <c r="I127" s="16">
+        <v>0</v>
+      </c>
+      <c r="J127" s="16"/>
+      <c r="K127" s="15">
+        <v>0</v>
+      </c>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="24"/>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>124</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E128" s="14">
+        <v>3</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G128" s="15">
+        <v>4</v>
+      </c>
+      <c r="H128" s="15">
+        <v>0</v>
+      </c>
+      <c r="I128" s="16">
+        <v>0</v>
+      </c>
+      <c r="J128" s="16"/>
+      <c r="K128" s="15">
+        <v>0</v>
+      </c>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="24"/>
+    </row>
+    <row r="129" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>125</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E129" s="26">
+        <v>3</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G129" s="27">
+        <v>4</v>
+      </c>
+      <c r="H129" s="27">
+        <v>0</v>
+      </c>
+      <c r="I129" s="28">
+        <v>0</v>
+      </c>
+      <c r="J129" s="28"/>
+      <c r="K129" s="27">
+        <v>0</v>
+      </c>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="29"/>
+    </row>
+    <row r="132" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D133" s="51" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E133" s="52" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F133" s="52" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G133" s="52" t="s">
+        <v>4186</v>
+      </c>
+      <c r="H133" s="52" t="s">
+        <v>4187</v>
+      </c>
+      <c r="I133" s="52" t="s">
+        <v>4188</v>
+      </c>
+      <c r="J133" s="52" t="s">
+        <v>4189</v>
+      </c>
+      <c r="K133" s="52" t="s">
+        <v>4213</v>
+      </c>
+      <c r="L133" s="52" t="s">
+        <v>4214</v>
+      </c>
+      <c r="M133" s="52" t="s">
+        <v>4215</v>
+      </c>
+      <c r="N133" s="52" t="s">
+        <v>4216</v>
+      </c>
+      <c r="O133" s="53" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G134" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H134" s="50">
+        <v>1239</v>
+      </c>
+      <c r="I134" s="16">
+        <v>-68.927435237198196</v>
+      </c>
+      <c r="J134" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="K134" s="11">
+        <v>444</v>
+      </c>
+      <c r="L134" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M134" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N134" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="O134" s="55">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G135" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H135" s="50">
+        <v>87</v>
+      </c>
+      <c r="I135" s="16">
+        <v>-4.7747996790380602</v>
+      </c>
+      <c r="J135" s="16">
+        <v>-5.5</v>
+      </c>
+      <c r="K135" s="11">
+        <v>54</v>
+      </c>
+      <c r="L135" s="11">
+        <v>62.1</v>
+      </c>
+      <c r="M135" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N135" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O135" s="55">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G136" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H136" s="50">
+        <v>343</v>
+      </c>
+      <c r="I136" s="16">
+        <v>-15.2054376213271</v>
+      </c>
+      <c r="J136" s="16">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K136" s="11">
+        <v>174</v>
+      </c>
+      <c r="L136" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="M136" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N136" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="O136" s="55">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" s="71" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E137" s="72" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F137" s="72" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G137" s="73">
+        <v>1237</v>
+      </c>
+      <c r="H137" s="73">
+        <v>608</v>
+      </c>
+      <c r="I137" s="33">
+        <v>2.8802519982245598</v>
+      </c>
+      <c r="J137" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K137" s="72">
+        <v>281</v>
+      </c>
+      <c r="L137" s="72">
+        <v>46.2</v>
+      </c>
+      <c r="M137" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N137" s="72">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O137" s="74">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G138" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H138" s="50">
+        <v>1239</v>
+      </c>
+      <c r="I138" s="16">
+        <v>-68.927435237198196</v>
+      </c>
+      <c r="J138" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="K138" s="11">
+        <v>444</v>
+      </c>
+      <c r="L138" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M138" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N138" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="O138" s="55">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139" s="71" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E139" s="72" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F139" s="72" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G139" s="73">
+        <v>1237</v>
+      </c>
+      <c r="H139" s="73">
+        <v>1241</v>
+      </c>
+      <c r="I139" s="33">
+        <v>36.731909672910298</v>
+      </c>
+      <c r="J139" s="33">
+        <v>3</v>
+      </c>
+      <c r="K139" s="72">
+        <v>278</v>
+      </c>
+      <c r="L139" s="72">
+        <v>22.4</v>
+      </c>
+      <c r="M139" s="72">
+        <v>1.38</v>
+      </c>
+      <c r="N139" s="72">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="O139" s="74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G140" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H140" s="50">
+        <v>1245</v>
+      </c>
+      <c r="I140" s="16">
+        <v>-47.976962971066399</v>
+      </c>
+      <c r="J140" s="16">
+        <v>-3.9</v>
+      </c>
+      <c r="K140" s="11">
+        <v>172</v>
+      </c>
+      <c r="L140" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="M140" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="N140" s="11">
+        <v>7.73</v>
+      </c>
+      <c r="O140" s="55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G141" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H141" s="50">
+        <v>1244</v>
+      </c>
+      <c r="I141" s="16">
+        <v>-219.86642977856999</v>
+      </c>
+      <c r="J141" s="16">
+        <v>-17.7</v>
+      </c>
+      <c r="K141" s="11">
+        <v>109</v>
+      </c>
+      <c r="L141" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M141" s="11">
+        <v>2</v>
+      </c>
+      <c r="N141" s="11">
+        <v>11.66</v>
+      </c>
+      <c r="O141" s="55">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G142" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H142" s="50">
+        <v>1241</v>
+      </c>
+      <c r="I142" s="16">
+        <v>-41.318215046585401</v>
+      </c>
+      <c r="J142" s="16">
+        <v>-3.3</v>
+      </c>
+      <c r="K142" s="11">
+        <v>89</v>
+      </c>
+      <c r="L142" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="M142" s="11">
+        <v>2.21</v>
+      </c>
+      <c r="N142" s="11">
+        <v>17.96</v>
+      </c>
+      <c r="O142" s="55">
+        <v>299.64</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G143" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H143" s="50">
+        <v>1243</v>
+      </c>
+      <c r="I143" s="16">
+        <v>306.39447757701998</v>
+      </c>
+      <c r="J143" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="K143" s="11">
+        <v>80</v>
+      </c>
+      <c r="L143" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="M143" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="N143" s="11">
+        <v>29.49</v>
+      </c>
+      <c r="O143" s="55">
+        <v>465.98</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G144" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H144" s="50">
+        <v>1240</v>
+      </c>
+      <c r="I144" s="16">
+        <v>54.836606223177498</v>
+      </c>
+      <c r="J144" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K144" s="11">
+        <v>44</v>
+      </c>
+      <c r="L144" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="M144" s="11">
+        <v>3.19</v>
+      </c>
+      <c r="N144" s="11">
+        <v>57.33</v>
+      </c>
+      <c r="O144" s="55">
+        <v>997.02</v>
+      </c>
+    </row>
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G145" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H145" s="50">
+        <v>1179</v>
+      </c>
+      <c r="I145" s="16">
+        <v>184.91329048001799</v>
+      </c>
+      <c r="J145" s="16">
+        <v>15.7</v>
+      </c>
+      <c r="K145" s="11">
+        <v>23</v>
+      </c>
+      <c r="L145" s="11">
+        <v>2</v>
+      </c>
+      <c r="M145" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="N145" s="11">
+        <v>122.57</v>
+      </c>
+      <c r="O145" s="55">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G146" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H146" s="50">
+        <v>3725</v>
+      </c>
+      <c r="I146" s="16">
+        <v>-77.252262175989998</v>
+      </c>
+      <c r="J146" s="16">
+        <v>-2.1</v>
+      </c>
+      <c r="K146" s="11">
+        <v>2106</v>
+      </c>
+      <c r="L146" s="11">
+        <v>56.5</v>
+      </c>
+      <c r="M146" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="N146" s="11">
+        <v>1.81</v>
+      </c>
+      <c r="O146" s="55">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G147" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H147" s="50">
+        <v>1239</v>
+      </c>
+      <c r="I147" s="16">
+        <v>-18.966967331043701</v>
+      </c>
+      <c r="J147" s="16">
+        <v>-1.5</v>
+      </c>
+      <c r="K147" s="11">
+        <v>832</v>
+      </c>
+      <c r="L147" s="11">
+        <v>67.2</v>
+      </c>
+      <c r="M147" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="N147" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O147" s="55">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>14</v>
+      </c>
+      <c r="D148" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G148" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H148" s="50">
+        <v>1241</v>
+      </c>
+      <c r="I148" s="16">
+        <v>-4.4730255689691703</v>
+      </c>
+      <c r="J148" s="16">
+        <v>-0.4</v>
+      </c>
+      <c r="K148" s="11">
+        <v>702</v>
+      </c>
+      <c r="L148" s="11">
+        <v>56.6</v>
+      </c>
+      <c r="M148" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N148" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="O148" s="55">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G149" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H149" s="50">
+        <v>1245</v>
+      </c>
+      <c r="I149" s="16">
+        <v>-53.812269275977101</v>
+      </c>
+      <c r="J149" s="16">
+        <v>-4.3</v>
+      </c>
+      <c r="K149" s="11">
+        <v>572</v>
+      </c>
+      <c r="L149" s="11">
+        <v>45.9</v>
+      </c>
+      <c r="M149" s="11">
+        <v>1.38</v>
+      </c>
+      <c r="N149" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="O149" s="55">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="D150" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G150" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H150" s="50">
+        <v>1244</v>
+      </c>
+      <c r="I150" s="16">
+        <v>-81.564340134785397</v>
+      </c>
+      <c r="J150" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K150" s="11">
+        <v>464</v>
+      </c>
+      <c r="L150" s="11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M150" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="N150" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="O150" s="55">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>17</v>
+      </c>
+      <c r="D151" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G151" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H151" s="50">
+        <v>1241</v>
+      </c>
+      <c r="I151" s="16">
+        <v>7.6663881481194203</v>
+      </c>
+      <c r="J151" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="K151" s="11">
+        <v>410</v>
+      </c>
+      <c r="L151" s="11">
+        <v>33</v>
+      </c>
+      <c r="M151" s="11">
+        <v>1.43</v>
+      </c>
+      <c r="N151" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="O151" s="55">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="152" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>18</v>
+      </c>
+      <c r="D152" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G152" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H152" s="50">
+        <v>1243</v>
+      </c>
+      <c r="I152" s="16">
+        <v>42.749788626144301</v>
+      </c>
+      <c r="J152" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="K152" s="11">
+        <v>338</v>
+      </c>
+      <c r="L152" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="M152" s="11">
+        <v>1.58</v>
+      </c>
+      <c r="N152" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="O152" s="55">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="153" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G153" s="50">
+        <v>1237</v>
+      </c>
+      <c r="H153" s="50">
+        <v>1240</v>
+      </c>
+      <c r="I153" s="16">
+        <v>-96.211308345349806</v>
+      </c>
+      <c r="J153" s="16">
+        <v>-7.8</v>
+      </c>
+      <c r="K153" s="11">
+        <v>228</v>
+      </c>
+      <c r="L153" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M153" s="11">
+        <v>1.48</v>
+      </c>
+      <c r="N153" s="11">
+        <v>6.41</v>
+      </c>
+      <c r="O153" s="55">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="154" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>20</v>
+      </c>
+      <c r="D154" s="56" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E154" s="57" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F154" s="57" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G154" s="58">
+        <v>1237</v>
+      </c>
+      <c r="H154" s="58">
+        <v>1179</v>
+      </c>
+      <c r="I154" s="28">
+        <v>-25.222955000790499</v>
+      </c>
+      <c r="J154" s="28">
+        <v>-2.1</v>
+      </c>
+      <c r="K154" s="57">
+        <v>161</v>
+      </c>
+      <c r="L154" s="57">
+        <v>13.7</v>
+      </c>
+      <c r="M154" s="57">
+        <v>1.69</v>
+      </c>
+      <c r="N154" s="57">
+        <v>11.74</v>
+      </c>
+      <c r="O154" s="59">
+        <v>88.72</v>
+      </c>
+    </row>
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>21</v>
+      </c>
+      <c r="D155" s="60" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E155" s="61">
+        <v>44747</v>
+      </c>
+      <c r="F155" s="62" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G155" s="63">
+        <v>2110</v>
+      </c>
+      <c r="H155" s="63">
+        <v>2102</v>
+      </c>
+      <c r="I155" s="21">
+        <v>-11.150856909241</v>
+      </c>
+      <c r="J155" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="K155" s="62">
+        <v>892</v>
+      </c>
+      <c r="L155" s="62">
+        <v>42.4</v>
+      </c>
+      <c r="M155" s="62">
+        <v>1.08</v>
+      </c>
+      <c r="N155" s="62">
+        <v>2.64</v>
+      </c>
+      <c r="O155" s="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>22</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E156" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G156" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H156" s="50">
+        <v>355</v>
+      </c>
+      <c r="I156" s="16">
+        <v>-0.683384246431613</v>
+      </c>
+      <c r="J156" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="K156" s="11">
+        <v>236</v>
+      </c>
+      <c r="L156" s="11">
+        <v>66.5</v>
+      </c>
+      <c r="M156" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N156" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="O156" s="55">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>23</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E157" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G157" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H157" s="50">
+        <v>883</v>
+      </c>
+      <c r="I157" s="16">
+        <v>-8.1189803918784502</v>
+      </c>
+      <c r="J157" s="16">
+        <v>-0.9</v>
+      </c>
+      <c r="K157" s="11">
+        <v>492</v>
+      </c>
+      <c r="L157" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="M157" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N157" s="11">
+        <v>1.87</v>
+      </c>
+      <c r="O157" s="55">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>24</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E158" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G158" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H158" s="50">
+        <v>1336</v>
+      </c>
+      <c r="I158" s="16">
+        <v>-5.7934670007492501</v>
+      </c>
+      <c r="J158" s="16">
+        <v>-0.4</v>
+      </c>
+      <c r="K158" s="11">
+        <v>669</v>
+      </c>
+      <c r="L158" s="11">
+        <v>50.1</v>
+      </c>
+      <c r="M158" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N158" s="11">
+        <v>2.13</v>
+      </c>
+      <c r="O158" s="55">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>25</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E159" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G159" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H159" s="50">
+        <v>2102</v>
+      </c>
+      <c r="I159" s="16">
+        <v>-11.150856909241</v>
+      </c>
+      <c r="J159" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="K159" s="11">
+        <v>892</v>
+      </c>
+      <c r="L159" s="11">
+        <v>42.4</v>
+      </c>
+      <c r="M159" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N159" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="O159" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>26</v>
+      </c>
+      <c r="D160" s="66" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E160" s="67">
+        <v>44747</v>
+      </c>
+      <c r="F160" s="68" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G160" s="69">
+        <v>2110</v>
+      </c>
+      <c r="H160" s="69">
+        <v>2109</v>
+      </c>
+      <c r="I160" s="42">
+        <v>79.9053186679958</v>
+      </c>
+      <c r="J160" s="42">
+        <v>3.8</v>
+      </c>
+      <c r="K160" s="68">
+        <v>490</v>
+      </c>
+      <c r="L160" s="68">
+        <v>23.2</v>
+      </c>
+      <c r="M160" s="68">
+        <v>1.23</v>
+      </c>
+      <c r="N160" s="68">
+        <v>4.97</v>
+      </c>
+      <c r="O160" s="70">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>27</v>
+      </c>
+      <c r="D161" s="66" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E161" s="67">
+        <v>44747</v>
+      </c>
+      <c r="F161" s="68" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G161" s="69">
+        <v>2110</v>
+      </c>
+      <c r="H161" s="69">
+        <v>2109</v>
+      </c>
+      <c r="I161" s="42">
+        <v>90.176817448184195</v>
+      </c>
+      <c r="J161" s="42">
+        <v>4.3</v>
+      </c>
+      <c r="K161" s="68">
+        <v>316</v>
+      </c>
+      <c r="L161" s="68">
+        <v>15</v>
+      </c>
+      <c r="M161" s="68">
+        <v>1.62</v>
+      </c>
+      <c r="N161" s="68">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O161" s="70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>28</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E162" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G162" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H162" s="50">
+        <v>2112</v>
+      </c>
+      <c r="I162" s="16">
+        <v>-48.632449487838201</v>
+      </c>
+      <c r="J162" s="16">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="K162" s="11">
+        <v>198</v>
+      </c>
+      <c r="L162" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="M162" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="N162" s="11">
+        <v>15.72</v>
+      </c>
+      <c r="O162" s="55">
+        <v>245.71</v>
+      </c>
+    </row>
+    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>29</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E163" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G163" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H163" s="50">
+        <v>2107</v>
+      </c>
+      <c r="I163" s="16">
+        <v>-192.48105030253501</v>
+      </c>
+      <c r="J163" s="16">
+        <v>-9.1</v>
+      </c>
+      <c r="K163" s="11">
+        <v>97</v>
+      </c>
+      <c r="L163" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M163" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="N163" s="11">
+        <v>33.46</v>
+      </c>
+      <c r="O163" s="55">
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>30</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E164" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G164" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H164" s="50">
+        <v>1859</v>
+      </c>
+      <c r="I164" s="16">
+        <v>-123.377190113382</v>
+      </c>
+      <c r="J164" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K164" s="11">
+        <v>56</v>
+      </c>
+      <c r="L164" s="11">
+        <v>3</v>
+      </c>
+      <c r="M164" s="11">
+        <v>2.83</v>
+      </c>
+      <c r="N164" s="11">
+        <v>63.04</v>
+      </c>
+      <c r="O164" s="55">
+        <v>612.49</v>
+      </c>
+    </row>
+    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>31</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E165" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G165" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H165" s="50">
+        <v>1160</v>
+      </c>
+      <c r="I165" s="16">
+        <v>-91.386812746217601</v>
+      </c>
+      <c r="J165" s="16">
+        <v>-7.9</v>
+      </c>
+      <c r="K165" s="11">
+        <v>27</v>
+      </c>
+      <c r="L165" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M165" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N165" s="11">
+        <v>115.59</v>
+      </c>
+      <c r="O165" s="55">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>32</v>
+      </c>
+      <c r="D166" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E166" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G166" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H166" s="50">
+        <v>9</v>
+      </c>
+      <c r="I166" s="16">
+        <v>-9</v>
+      </c>
+      <c r="J166" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>5.27</v>
+      </c>
+      <c r="N166" s="11">
+        <v>11.89</v>
+      </c>
+      <c r="O166" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>33</v>
+      </c>
+      <c r="D167" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E167" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G167" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H167" s="50">
+        <v>6320</v>
+      </c>
+      <c r="I167" s="16">
+        <v>-357.02273211661299</v>
+      </c>
+      <c r="J167" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="K167" s="11">
+        <v>3034</v>
+      </c>
+      <c r="L167" s="11">
+        <v>48</v>
+      </c>
+      <c r="M167" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="N167" s="11">
+        <v>2.16</v>
+      </c>
+      <c r="O167" s="55">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>34</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E168" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G168" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H168" s="50">
+        <v>2102</v>
+      </c>
+      <c r="I168" s="16">
+        <v>-96.845512477703906</v>
+      </c>
+      <c r="J168" s="16">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="K168" s="11">
+        <v>1310</v>
+      </c>
+      <c r="L168" s="11">
+        <v>62.3</v>
+      </c>
+      <c r="M168" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="N168" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="O168" s="55">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>35</v>
+      </c>
+      <c r="D169" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E169" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G169" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H169" s="50">
+        <v>2109</v>
+      </c>
+      <c r="I169" s="16">
+        <v>-138.82693794217201</v>
+      </c>
+      <c r="J169" s="16">
+        <v>-6.6</v>
+      </c>
+      <c r="K169" s="11">
+        <v>982</v>
+      </c>
+      <c r="L169" s="11">
+        <v>46.6</v>
+      </c>
+      <c r="M169" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N169" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="O169" s="55">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>36</v>
+      </c>
+      <c r="D170" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E170" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G170" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H170" s="50">
+        <v>2109</v>
+      </c>
+      <c r="I170" s="16">
+        <v>-121.350281696737</v>
+      </c>
+      <c r="J170" s="16">
+        <v>-5.8</v>
+      </c>
+      <c r="K170" s="11">
+        <v>742</v>
+      </c>
+      <c r="L170" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M170" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N170" s="11">
+        <v>2.82</v>
+      </c>
+      <c r="O170" s="55">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>37</v>
+      </c>
+      <c r="D171" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E171" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G171" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H171" s="50">
+        <v>2112</v>
+      </c>
+      <c r="I171" s="16">
+        <v>-230.92645856077999</v>
+      </c>
+      <c r="J171" s="16">
+        <v>-10.9</v>
+      </c>
+      <c r="K171" s="11">
+        <v>519</v>
+      </c>
+      <c r="L171" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="M171" s="11">
+        <v>1.41</v>
+      </c>
+      <c r="N171" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O171" s="55">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>38</v>
+      </c>
+      <c r="D172" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E172" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G172" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H172" s="50">
+        <v>2107</v>
+      </c>
+      <c r="I172" s="16">
+        <v>-357.56527227784102</v>
+      </c>
+      <c r="J172" s="16">
+        <v>-17</v>
+      </c>
+      <c r="K172" s="11">
+        <v>317</v>
+      </c>
+      <c r="L172" s="11">
+        <v>15</v>
+      </c>
+      <c r="M172" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="N172" s="11">
+        <v>7.36</v>
+      </c>
+      <c r="O172" s="55">
+        <v>123.26</v>
+      </c>
+    </row>
+    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>39</v>
+      </c>
+      <c r="D173" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E173" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G173" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H173" s="50">
+        <v>1859</v>
+      </c>
+      <c r="I173" s="16">
+        <v>-394.93631332097902</v>
+      </c>
+      <c r="J173" s="16">
+        <v>-21.2</v>
+      </c>
+      <c r="K173" s="11">
+        <v>198</v>
+      </c>
+      <c r="L173" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="M173" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="N173" s="11">
+        <v>12.89</v>
+      </c>
+      <c r="O173" s="55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>40</v>
+      </c>
+      <c r="D174" s="54" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E174" s="49">
+        <v>44747</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G174" s="50">
+        <v>2110</v>
+      </c>
+      <c r="H174" s="50">
+        <v>1160</v>
+      </c>
+      <c r="I174" s="16">
+        <v>-460.35596094252401</v>
+      </c>
+      <c r="J174" s="16">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="K174" s="11">
+        <v>74</v>
+      </c>
+      <c r="L174" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="M174" s="11">
+        <v>1.49</v>
+      </c>
+      <c r="N174" s="11">
+        <v>21.14</v>
+      </c>
+      <c r="O174" s="55">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>41</v>
+      </c>
+      <c r="D175" s="56" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E175" s="65">
+        <v>44747</v>
+      </c>
+      <c r="F175" s="57" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G175" s="58">
+        <v>2110</v>
+      </c>
+      <c r="H175" s="58">
+        <v>9</v>
+      </c>
+      <c r="I175" s="28">
+        <v>-4.0092875467312101</v>
+      </c>
+      <c r="J175" s="28">
+        <v>-44.5</v>
+      </c>
+      <c r="K175" s="57">
+        <v>2</v>
+      </c>
+      <c r="L175" s="57">
+        <v>22.2</v>
+      </c>
+      <c r="M175" s="57">
+        <v>1.94</v>
+      </c>
+      <c r="N175" s="57">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="O175" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>42</v>
+      </c>
+      <c r="D176" s="75" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E176" s="75" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F176" s="75" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G176" s="76">
+        <v>20</v>
+      </c>
+      <c r="H176" s="76">
+        <v>20</v>
+      </c>
+      <c r="I176" s="77">
+        <v>7.0986745905985202</v>
+      </c>
+      <c r="J176" s="77">
+        <v>35.5</v>
+      </c>
+      <c r="K176" s="75">
+        <v>11</v>
+      </c>
+      <c r="L176" s="75">
+        <v>55</v>
+      </c>
+      <c r="M176" s="75">
+        <v>1.29</v>
+      </c>
+      <c r="N176" s="75">
+        <v>3.07</v>
+      </c>
+      <c r="O176" s="75">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>43</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G177" s="50">
+        <v>20</v>
+      </c>
+      <c r="H177" s="50">
+        <v>5</v>
+      </c>
+      <c r="I177" s="16">
+        <v>-2.2139889086302298</v>
+      </c>
+      <c r="J177" s="16">
+        <v>-44.3</v>
+      </c>
+      <c r="K177" s="11">
+        <v>2</v>
+      </c>
+      <c r="L177" s="11">
+        <v>40</v>
+      </c>
+      <c r="M177" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="N177" s="11">
+        <v>1.49</v>
+      </c>
+      <c r="O177" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="178" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>44</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G178" s="50">
+        <v>20</v>
+      </c>
+      <c r="H178" s="50">
+        <v>9</v>
+      </c>
+      <c r="I178" s="16">
+        <v>-0.30392504108143398</v>
+      </c>
+      <c r="J178" s="16">
+        <v>-3.4</v>
+      </c>
+      <c r="K178" s="11">
+        <v>5</v>
+      </c>
+      <c r="L178" s="11">
+        <v>55.6</v>
+      </c>
+      <c r="M178" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="N178" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="O178" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>45</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G179" s="50">
+        <v>20</v>
+      </c>
+      <c r="H179" s="50">
+        <v>12</v>
+      </c>
+      <c r="I179" s="16">
+        <v>1.2379601009185599</v>
+      </c>
+      <c r="J179" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="K179" s="11">
+        <v>7</v>
+      </c>
+      <c r="L179" s="11">
+        <v>58.3</v>
+      </c>
+      <c r="M179" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="N179" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="O179" s="11">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>46</v>
+      </c>
+      <c r="D180" s="72" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E180" s="72" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F180" s="72" t="s">
+        <v>4223</v>
+      </c>
+      <c r="G180" s="73">
+        <v>20</v>
+      </c>
+      <c r="H180" s="73">
+        <v>20</v>
+      </c>
+      <c r="I180" s="33">
+        <v>7.0986745905985202</v>
+      </c>
+      <c r="J180" s="33">
+        <v>35.5</v>
+      </c>
+      <c r="K180" s="72">
+        <v>11</v>
+      </c>
+      <c r="L180" s="72">
+        <v>55</v>
+      </c>
+      <c r="M180" s="72">
+        <v>1.29</v>
+      </c>
+      <c r="N180" s="72">
+        <v>3.07</v>
+      </c>
+      <c r="O180" s="72">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>47</v>
+      </c>
+      <c r="D181" s="68" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E181" s="68" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F181" s="68" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G181" s="69">
+        <v>20</v>
+      </c>
+      <c r="H181" s="69">
+        <v>20</v>
+      </c>
+      <c r="I181" s="42">
+        <v>64.585799369388099</v>
+      </c>
+      <c r="J181" s="42">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="K181" s="68">
+        <v>6</v>
+      </c>
+      <c r="L181" s="68">
+        <v>30</v>
+      </c>
+      <c r="M181" s="68">
+        <v>2.62</v>
+      </c>
+      <c r="N181" s="68">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="O181" s="68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>48</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G182" s="50">
+        <v>20</v>
+      </c>
+      <c r="H182" s="50">
+        <v>20</v>
+      </c>
+      <c r="I182" s="16">
+        <v>-10.206143319000001</v>
+      </c>
+      <c r="J182" s="16">
+        <v>-51</v>
+      </c>
+      <c r="K182" s="11">
+        <v>1</v>
+      </c>
+      <c r="L182" s="11">
+        <v>5</v>
+      </c>
+      <c r="M182" s="11">
+        <v>3.89</v>
+      </c>
+      <c r="N182" s="11">
+        <v>22.38</v>
+      </c>
+      <c r="O182" s="11">
+        <v>104.09</v>
+      </c>
+    </row>
+    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>49</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G183" s="50">
+        <v>20</v>
+      </c>
+      <c r="H183" s="50">
+        <v>16</v>
+      </c>
+      <c r="I183" s="16">
+        <v>-16</v>
+      </c>
+      <c r="J183" s="16">
+        <v>-100</v>
+      </c>
+      <c r="K183" s="11">
+        <v>0</v>
+      </c>
+      <c r="L183" s="11">
+        <v>0</v>
+      </c>
+      <c r="M183" s="11">
+        <v>7.28</v>
+      </c>
+      <c r="N183" s="11">
+        <v>54.73</v>
+      </c>
+      <c r="O183" s="11">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>50</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G184" s="50">
+        <v>20</v>
+      </c>
+      <c r="H184" s="50">
+        <v>0</v>
+      </c>
+      <c r="I184" s="16">
+        <v>0</v>
+      </c>
+      <c r="J184" s="16"/>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+    </row>
+    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>51</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G185" s="50">
+        <v>20</v>
+      </c>
+      <c r="H185" s="50">
+        <v>0</v>
+      </c>
+      <c r="I185" s="16">
+        <v>0</v>
+      </c>
+      <c r="J185" s="16"/>
+      <c r="K185" s="11">
+        <v>0</v>
+      </c>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+    </row>
+    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>52</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>4229</v>
+      </c>
+      <c r="G186" s="50">
+        <v>20</v>
+      </c>
+      <c r="H186" s="50">
+        <v>0</v>
+      </c>
+      <c r="I186" s="16">
+        <v>0</v>
+      </c>
+      <c r="J186" s="16"/>
+      <c r="K186" s="11">
+        <v>0</v>
+      </c>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+    </row>
+    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>53</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G187" s="50">
+        <v>20</v>
+      </c>
+      <c r="H187" s="50">
+        <v>0</v>
+      </c>
+      <c r="I187" s="16">
+        <v>0</v>
+      </c>
+      <c r="J187" s="16"/>
+      <c r="K187" s="11">
+        <v>0</v>
+      </c>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+    </row>
+    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>54</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>4231</v>
+      </c>
+      <c r="G188" s="50">
+        <v>20</v>
+      </c>
+      <c r="H188" s="50">
+        <v>60</v>
+      </c>
+      <c r="I188" s="16">
+        <v>0</v>
+      </c>
+      <c r="J188" s="16">
+        <v>0</v>
+      </c>
+      <c r="K188" s="11">
+        <v>0</v>
+      </c>
+      <c r="L188" s="11">
+        <v>0</v>
+      </c>
+      <c r="M188" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N188" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="O188" s="11">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>55</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G189" s="50">
+        <v>20</v>
+      </c>
+      <c r="H189" s="50">
+        <v>20</v>
+      </c>
+      <c r="I189" s="16">
+        <v>0</v>
+      </c>
+      <c r="J189" s="16">
+        <v>0</v>
+      </c>
+      <c r="K189" s="11">
+        <v>0</v>
+      </c>
+      <c r="L189" s="11">
+        <v>0</v>
+      </c>
+      <c r="M189" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="N189" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="O189" s="11">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>56</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G190" s="50">
+        <v>20</v>
+      </c>
+      <c r="H190" s="50">
+        <v>20</v>
+      </c>
+      <c r="I190" s="16">
+        <v>0</v>
+      </c>
+      <c r="J190" s="16">
+        <v>0</v>
+      </c>
+      <c r="K190" s="11">
+        <v>0</v>
+      </c>
+      <c r="L190" s="11">
+        <v>0</v>
+      </c>
+      <c r="M190" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="N190" s="11">
+        <v>2.52</v>
+      </c>
+      <c r="O190" s="11">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>57</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G191" s="50">
+        <v>20</v>
+      </c>
+      <c r="H191" s="50">
+        <v>20</v>
+      </c>
+      <c r="I191" s="16">
+        <v>0</v>
+      </c>
+      <c r="J191" s="16">
+        <v>0</v>
+      </c>
+      <c r="K191" s="11">
+        <v>0</v>
+      </c>
+      <c r="L191" s="11">
+        <v>0</v>
+      </c>
+      <c r="M191" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="N191" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="O191" s="11">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>58</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G192" s="50">
+        <v>20</v>
+      </c>
+      <c r="H192" s="50">
+        <v>16</v>
+      </c>
+      <c r="I192" s="16">
+        <v>0</v>
+      </c>
+      <c r="J192" s="16">
+        <v>0</v>
+      </c>
+      <c r="K192" s="11">
+        <v>0</v>
+      </c>
+      <c r="L192" s="11">
+        <v>0</v>
+      </c>
+      <c r="M192" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="N192" s="11">
+        <v>11.55</v>
+      </c>
+      <c r="O192" s="11">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>59</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G193" s="50">
+        <v>20</v>
+      </c>
+      <c r="H193" s="50">
+        <v>0</v>
+      </c>
+      <c r="I193" s="16">
+        <v>0</v>
+      </c>
+      <c r="J193" s="16"/>
+      <c r="K193" s="11">
+        <v>0</v>
+      </c>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+    </row>
+    <row r="194" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>60</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G194" s="50">
+        <v>20</v>
+      </c>
+      <c r="H194" s="50">
+        <v>0</v>
+      </c>
+      <c r="I194" s="16">
+        <v>0</v>
+      </c>
+      <c r="J194" s="16"/>
+      <c r="K194" s="11">
+        <v>0</v>
+      </c>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+    </row>
+    <row r="195" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>61</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G195" s="50">
+        <v>20</v>
+      </c>
+      <c r="H195" s="50">
+        <v>0</v>
+      </c>
+      <c r="I195" s="16">
+        <v>0</v>
+      </c>
+      <c r="J195" s="16"/>
+      <c r="K195" s="11">
+        <v>0</v>
+      </c>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+    </row>
+    <row r="196" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>62</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G196" s="50">
+        <v>20</v>
+      </c>
+      <c r="H196" s="50">
+        <v>0</v>
+      </c>
+      <c r="I196" s="16">
+        <v>0</v>
+      </c>
+      <c r="J196" s="16"/>
+      <c r="K196" s="11">
+        <v>0</v>
+      </c>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D3:O129" xr:uid="{88B66C8A-B0F3-46F9-8ECF-C7CABA8C5281}"/>
+  <conditionalFormatting sqref="I4:J129">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="I134:J196">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
